--- a/cars.xlsx
+++ b/cars.xlsx
@@ -538,20 +538,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>لحظاتی پیش</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3820000000</v>
+        <v>3780000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار  مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات اماده تحویل با پلاک و مدارک کامل تحویل در نمایندگی</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -600,36 +600,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>پژو، 206</t>
+          <t>کی ام سی، T9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1399</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>تیپ 2</t>
+          <t>2 لیتر توربو</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>لحظاتی پیش</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>575000000</v>
+        <v>2750000000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>تهران / جنت‌آباد مرکزی</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>تهران / 17 شهریور</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات 📍نمایندگی کرمان موتور📍
+▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪Rafiee Motor▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪
+✔ثبت تمامی اسناد به نام متقاضی 
+✔تحویل ۲۰ روز کاری از نمایندگی رسمی 
+✔دارای گارانتی شرکتی 
+✔فرصت مناسب برای سرمایه گذاری با تعداد محدود 
+✔عقد قرارداد در نمایندگی رسمی
+◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾
+☎جهت اطلاعات بیشتر با ما تماس بگیرید.</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>45,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -639,7 +651,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -649,7 +661,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -659,57 +671,54 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4 سیلندر TU3</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>14.1 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.4 لیتر</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>6.4 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>فولکس، ID.4 Crozz</t>
+          <t>بی ای سی، X3 PRO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PURE</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4170000000</v>
+          <t>لحظاتی پیش</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / پونک</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار  خشک مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات ▪️◾️◼️◼️ نمایندگی مجاز کرمان موتور کد 314رفیعی ◼️◼️◾️▪️
+⚜-امکان بازدید قبل از خرید
+____________________________________
+جهت کسب اطلاعات بیشتر با همکاران ما در تماس باشید.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -719,7 +728,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>برقی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -734,7 +743,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>طوسی</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -744,26 +753,34 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1 موتور الکتریکی</t>
+          <t>4 سیلندر (4G15)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>9 ثانیه</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+          <t>12.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>6.1 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>اس دبلیو ام، G01</t>
+          <t>لاماری، ایما</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -773,7 +790,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>لحظاتی پیش</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -783,17 +800,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / اندرزگو</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار درحد صفر خشک مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات ✅امید گالری
+بیش از ۱۵ سال سابقه در خرید و فروش ماشین
+عضو رسمی اتحادیه
+تحویل فوری با امکان کارشناسی
+✅قیمت آخر را از ما بخواهید</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -813,7 +834,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -823,12 +844,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (DG15T)</t>
+          <t>4 سیلندر توربوشارژ (4A95TD)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>12.7 ثانیه</t>
+          <t>9.5 ثانیه</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -836,44 +857,48 @@
           <t>1.5 لیتر</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>9.6 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>لوکانو، L7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>1.6 لیتر توربو</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>لحظاتی پیش</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1870000000</v>
+        <v>1800000000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار خشک مدارک آماده انتقال سند آزاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات ❌ ثبت نام خودرو لوکانو باز شد❌
+💎 فروش قطعی و بدون قرعه کشی لوکانو L7 به صورت اقساط در نمایندگی ۷۲۴ الماس پارس💎
+🔷اقساط ۳۶ ماهه
+🔷بدون محدودیت ثبت نام
+🔷خارج از سامانه و بدون قرعه کشی
+🔷رنگ به انتخاب مشتری
+🔷تحویل ۱۰ روزه
+*ثبت اطلاعات جهت پیش ثبت نام فقط با ارسال یک‌ مدرک شناسایی امکان پذیر است*
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -898,7 +923,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -908,69 +933,78 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>4 سیلندر توربوشارژ (4J16)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>8 ثانیه</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr"/>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>7.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ب ام و، X3</t>
+          <t>سمند، سورن</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>پلاس EF7 دوگانه سوز</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>لحظاتی پیش</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4200000000</v>
+        <v>898000000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / شهرک راه‌آهن</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات سلام گلگیر جلو شاگرد رنگ بخشی از گلگیر جلو راننده رنگ داره ماشین فنی سالم موتور تازه تعمیر شده ۴تا لاستیک نو ۴تا کمک نو (کمک ها برقی هست) جلو پنجره دوبل مشکی فرمان m جدید ماشین فول ابوظبی هست</t>
+          <t xml:space="preserve"> توضیحات نقد و اقساط ،به شرط کارشناسی ،به شرط رویت،سند ازاد،معاوضه با خودروی شما
+شجری</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>226,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>دوگانه سوز</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>دو لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -980,47 +1014,75 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>داخل مارون</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
+          <t>داخل مشکی</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>4 سیلندر EF7 دوگانه سوز</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>12.8 ثانیه</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.7 لیتر</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>7.5 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>تویوتا، پرادو  چهار در</t>
+          <t>لوکانو، L7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6 سیلندر</t>
+          <t>1.6 لیتر توربو</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>لحظاتی پیش</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6950000000</v>
+        <v>1800000000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>قدس</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ❌ ثبت نام خودرو لوکانو باز شد❌
+💎 فروش قطعی و بدون قرعه کشی لوکانو L7 به صورت اقساط در نمایندگی ۷۲۴ الماس پارس💎
+🔷اقساط ۳۶ ماهه
+🔷بدون محدودیت ثبت نام
+🔷خارج از سامانه و بدون قرعه کشی
+🔷رنگ به انتخاب مشتری
+🔷تحویل ۱۰ روزه
+*ثبت اطلاعات جهت پیش ثبت نام فقط با ارسال یک‌ مدرک شناسایی امکان پذیر است*
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>127,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1040,72 +1102,75 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>سفید صدفی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>داخل کرم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6 سیلندر</t>
+          <t>4 سیلندر توربوشارژ (4J16)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9.8 ثانیه</t>
+          <t>8 ثانیه</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>4 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13.2 لیتر در صد کیلومتر</t>
+          <t>7.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>هیوندای، سانتافه</t>
+          <t>کی ام سی، ایگل</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6 سیلندر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>لحظاتی پیش</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1670000000</v>
+        <v>1050000000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>تهران / پاسداران</t>
+          <t>تهران / پونک</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات خودش.حدود ۴۰۰ میلیون با فاکتور خرج ماشین شده.تعمیر کامل موتور،زیربند و پلوسها و بوش و طبق ها و لنت ها کامل تعویض و نو،ادوات برقی تعویض و سالم،۴حلقه لاستیک ۲۴۵ هانکوک نو به ارزش ۵۰میلیون،مانیتور بزرگ برند اندروید به همراه ۴باند مخفی تو دری کامپوننت JBL امپلی فایر دار،۳دست هدلایت برند،شیشه ها کامل دودی برند امریکایی،رینگ و لاستیک زاپاس صفر،باطری صفرروغن گیربکس و موتور و تمام مصرفی ها انجام شده بدون ریالی خرج،بیمه بدنه و ثالث و معاینه فنی،سند بنام،شاسی جلو و عقب سالم.کاپوت و سقف و‌صندوق بیرنگ کامل</t>
+          <t xml:space="preserve"> توضیحات ▪️◾️◼️◼️ نمایندگی مجاز کرمان موتور کد 1752رفیعی ◼️◼️◾️▪️
+⚜-فروش نقدی * تحویل 20 روزه کاری
+⚜-انتخاب رنگ بدون اختلاف قیمت * 
+⚜-سند آزاد و به نام خریدار</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>237,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1120,77 +1185,79 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>چند لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>سفید صدفی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>داخل کرم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6 سیلندر</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11.3 ثانیه</t>
+          <t>12.5 ثانیه</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2.7 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>10.4 لیتر در صد کیلومتر</t>
+          <t>6.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>مزدا، 3 نیو صندوق دار</t>
+          <t>پورشه، باکستر</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1398</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.0 لیتر تیپ 4</t>
+          <t>718S</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>لحظاتی پیش</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2770000000</v>
+        <v>20000000000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / زعفرانیه</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار درحد صفر خشک مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات بدنه و فنی بی نقص به شرط
+اسپرت و اسپرت پلاس و پاور بوست رو فرمون، چراغpdls plus  رنگ سفارشی 
+هرگونه‌ مزاحمت پیگرد قانونی خواهد داشت</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5,000 km</t>
+          <t>39,000 km</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1210,39 +1277,39 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>نقرآبی</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل قرمز</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>4 سیلندر تخت توربوشارژ</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>9.2 ثانیه</t>
+          <t>4.4 ثانیه</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>2.5 لیتر</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>7.6 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>کی ام سی، X5</t>
+          <t>چری، آریزو 5T اسپرت FL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1252,37 +1319,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1890000000</v>
+        <v>1640000000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>تهران / آزادی</t>
+          <t>تهران / شهرک راه‌آهن</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ⚜️نمایندگی رسمی کرمان موتور کد ۱۷۷۷ (گروه خودرویی حیدری)⚜️
-✅ انتخاب رنگ به دلخواه مشتری
-✅ سند 6 دانگ به نام
-✅ بازرسی فنی پیش از تحویل
-✅ مجری طرح تعویض خودروهای کارکرده با صفر
-✅️نماینده برتر فروش محصولات کرمان موتور کشور✅️
-⚜️بزرگترین نمایندگی کرمان موتور در کل کشور⚜️
-⚜️مناسبترین قیمتها را از ما بخواهید⚜️
-⚜️فروش و خدمات پس از فروش⚜️
-⚜️ضمانت کارشناسی بدنه و خوردو⚜️
-⚜️طرح جایگزینی خودرو کارکرده شما با خودروهای صفر⚜️
-⚜️قیمتها کاملا قطعی و تمام شده میباشد⚜️
-خانم عزیزی</t>
+          <t xml:space="preserve"> توضیحات نقد و اقساط ،به شرط کارشناسی ،به شرط رویت،سند ازاد،معاوضه با خودروی شما
+شجری</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1307,7 +1363,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1317,49 +1373,59 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4GC16D)</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+          <t>4 سیلندر توربوشارژ</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>10.1 ثانیه</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>1.5 لیتر</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>6.9 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>تویوتا، کرولا</t>
+          <t>جک، S5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.2 لیتر توربو</t>
+          <t>1.5 لیتر اتوماتیک</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2720000000</v>
+        <v>1799000000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / شهرک غرب</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار خشک مدارک آماده انتقال سند آزاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات نمایندگی کرمان موتور خدامددی کد: ۱۷۴۸  
+✅️تحویل فوری
+✅مدارک آماده انتقال </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1384,7 +1450,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1394,29 +1460,21 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (9NR-FTS)</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>12 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ TGDi</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>5.6 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 8 پرو هیبرید</t>
+          <t>کی ام سی، X5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1426,25 +1484,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>e پلاس</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3210000000</v>
+        <v>1949000000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / شهرک غرب</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار خشک مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات نمایندگی کرمان موتور خدامددی 
+کد :1748
+✅️تحویل فوری 
+✅️بدون هزینه اضافی
+✅تک رنگترین محصول کرمان موتور
+✅مدارک آماده انتقال </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1454,7 +1517,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1469,69 +1532,59 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>قهوه ای</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>داخل مارون</t>
+          <t>داخل قهوه ای</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4T15C) با 2 موتور الکتریکی</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>7.6 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (4GC16D)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>1.5 لیتر</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>6.5 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>هوندا، eNS1</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>150 کیلووات</t>
+          <t>پانوراما دنده ای</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>3040000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار خشک مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
-        </is>
-      </c>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1539,12 +1592,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>برقی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1564,60 +1617,67 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1 موتور الکتریکی</t>
+          <t>4 سیلندر TU5</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>7.5 ثانیه</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+          <t>11.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>6.6 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>سمند، سورن</t>
+          <t>جک، S3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>پلاس EF7 بنزینی</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>640000000</v>
+        <v>1399000000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>خمینی شهر</t>
+          <t>تهران / شهرک غرب</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات بیمه تا آخر برج 8 
-رینگ آلومینیومی 
-پاور ویندوز شیشه ها اتوماتیک 
-آینه تاشو برقی 
-کروز کنترل 
-ماشین جلوش خورده دوتا گلگیر جلو و کاپوت تعویض فابریک شده شاسی هم ترمیم شده بدون شکستگی
-تمام مصرفی ها عوض شده بدون کوچکترین خرج</t>
+          <t xml:space="preserve"> توضیحات نمایندگی خدامددی کد:۱۷۴۸
+✅تحویل فوری ( قبل از ساعت ۱۴ وکالت نامه به اسم مشتری محترم همان لحظه صادر می‌شود)
+صدور پلاک و بیمه تیرماه ۱۴۰۴
+✅بدون هیچ هزینه اضافی مستقیم از نمایندگی 
+⚠️لطفا توجه کنید :
+این خودرو مدل ۱۴۰۴ ندارد و فقط مدارک درسال ۱۴۰۴ صادر شده ⚠️</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>65,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1627,12 +1687,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>کاپوت تعویض</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1647,57 +1707,64 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4 سیلندر EF7</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>12 ثانیه</t>
+          <t>10.8 ثانیه</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.7 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>7.3 لیتر در صد کیلومتر</t>
+          <t>7.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>کیا، K5</t>
+          <t>کی ام سی، ایگل</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5610000000</v>
+        <v>1050000000</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / صدر</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 314رفیعی🚩
+⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
+⏮️ سند دسته اول به نام شما خریدار محترم 
+مزایا :
+✅صرفه جویی در زمان و هزینه
+✅بدون واسطه ،مستقیم از فروشنده
+✅خرید مطمئن و بدون دردسر
+☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1722,22 +1789,22 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>خاکستری</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل خاکستری</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (G4FS)</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>8.8 ثانیه</t>
+          <t>12.5 ثانیه</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1747,29 +1814,29 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>5.9 لیتر در صد کیلومتر</t>
+          <t>6.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>پراید، صندوق دار</t>
+          <t>فولکس، ID.4 Crozz</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>PURE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1779,27 +1846,35 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>اسلام شهر</t>
+          <t>تهران / آجودانیه</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات سلام فقط به علت مهاجرت به فروش می‌رسد</t>
+          <t xml:space="preserve"> توضیحات ✅️نمایندگی رسمی ماموت خودرو
+✅️پرفروش ترین خودرو برقی
+✅️قیمت باورنکردنی
+✅️مانیتور بزرگ
+✅️نقد و اقساط
+✅️شرایط فروش عالی
+✅️خرید راحت و آسوده
+👨‍💼کارشناس فروش 
+مصطفی مشهدی</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>219,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>دوگانه سوز</t>
+          <t>برقی</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1809,7 +1884,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>سرمه ای</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1817,43 +1892,56 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1 موتور الکتریکی</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>9 ثانیه</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>چانگان، CS 55 پلاس</t>
+          <t>کی ام سی، T8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2740000000</v>
+        <v>1010000000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / پونک</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار صفر خشک مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات نمایندگی مجاز کرمان موتور کد 1752 رفیعی 
+ ثبت نام نقد و اقساط 
+ اقساط 12 الی 24 ماهه
+ تحویل 90 روزکاری 
+------------------------------------------
+جهت کسب اطلاعات بیشتر با همکاران ما در ارتباط باشید .</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1868,7 +1956,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1878,7 +1966,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>خاکستری</t>
+          <t>قرمز</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1886,64 +1974,58 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (JL473ZQ7)</t>
-        </is>
-      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>پژو، 206</t>
+          <t>فولکس، تی راک</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>تیپ 5</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>470000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>نکا</t>
+          <t>تهران / آجودانیه</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ماشین نیاز ب تعریف ندارد 
-سالم سرحال مصرفی ها به موقه عوض شده وضعیت فنی سالم 
-دو لکه رنگ در کاپوت و نصف گلگیر عقب شاسی ها سالم 
-لاستیک ۷۵ درصد 
-بیمه ۱۰ ماه  </t>
+          <t xml:space="preserve"> توضیحات ✅️پلاک آماده تحویل
+✅️نقد واقساط
+✅️خدمات VIP
+✅️به همراه کارشناسی
+✅️خرید امن و راحت
+✅️طرح تعویض خودرو های کارکرده
+✅️نمایندگی رسمی ماموت خودرو
+✅️کارشناس فروش 
+✅️مصطفی مشهدی</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>250,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1953,12 +2035,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>دو لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1968,67 +2050,67 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>داخل سفید</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5</t>
+          <t>4 سیلندر توربوشارژ (EA211)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>11.6 ثانیه</t>
+          <t>9.4 ثانیه</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>6.4 لیتر در صد کیلومتر</t>
+          <t>6.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>پژو، پارس</t>
+          <t>کوییک، GX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>XU7</t>
+          <t>L دنده ای</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>590000000</v>
+        <v>485000000</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>تهران / جنت‌آباد جنوبی</t>
+          <t>تهران / شهرآرا</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ماشین از اول دست خودم بوده،کاملا  بدون موج و بیرنگ صاف شدگی،فقط سرکاپوت جلوی آرم اندازه ۵سانت لیسه دارد،معاینه ۱۰ماه،کولر واقعا یخچال،فنی درجه ۱،به شرط کارشناسی و اتاق رنگ،ماشین از لحاظ فنی و بدنه در حد خودرو صفر میباشددارای دزدگیر و کفی قالبی،همه ی باندها عوض شده</t>
+          <t xml:space="preserve"> توضیحات با ترمز ESC در حد صفر</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>88,000 km</t>
+          <t>1,700 km</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2053,73 +2135,72 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>داخل کرم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>4 سیلندر XU7</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>11 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر M15i بهبودیافته</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.8 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>9.1 لیتر در صد کیلومتر</t>
+          <t>6.7 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>نیسان، رونیز</t>
+          <t>هیوندای، کونا</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>2.0 لیتر</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1800000000</v>
+        <v>2500000000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>رودبار</t>
+          <t>تهران / صدر</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات لاستیک خارجی ۷۰ درصد
-بیمه بیش از ۱۰ سال تخفیف داره
-فنی فوق العاده سالم و به شرط
-اتاق فوق‌ العاده بدون تصادف و پوسیدگی 
-رنگ شدگی  اندازه کف دست که عکس هاش هم موجوده 
-دارای مانیتور و تزئینات سالم 
-</t>
+          <t xml:space="preserve"> توضیحات توضیحات
+_نمایندگی مجاز هیوندای کد 314 قیطریه 
+✔️نقدواقساط
+✔️ بدون ضامن
+✔️سندبنام خریدار
+✔️تحویل ۶۰ روز‌کاری
+✔️موعد چک هر۳ ماه
+_________________________
+ثبت نام اقساطی
+اقساط به صورت سه ماه یه بار و تاریخ اولین چک 15ابان</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>268,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2129,82 +2210,83 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>دو لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>نقره ای</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>داخل خاکستری</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>4 سیلندر MPi</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>15.2 ثانیه</t>
+          <t>10.8 ثانیه</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2.4 لیتر</t>
+          <t>2.0 لیتر</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>نیسان، پاترول دو در</t>
+          <t>دیگنیتی، پرایم</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1372</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>490000000</v>
+        <v>1995000000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>سیرجان</t>
+          <t>تهران / شهرک راه‌آهن</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات کاملا سالم هم از نظر فنی هم اتاق و زیربندی، موتور تعمیر کامل شده در ۳ماه گذشته</t>
+          <t xml:space="preserve"> توضیحات نقد و اقساط ،به شرط کارشناسی ،به شرط رویت،سند ازاد،معاوضه با خودروی شما
+شجری</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>500,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2214,17 +2296,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>کامل رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>سرمه ای</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2234,57 +2316,58 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4 سیلندر Z24 کاربراتوری</t>
+          <t>4 سیلندر توربوشارژ (SFG15T)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>16 ثانیه</t>
+          <t>13 ثانیه</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2.4 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>14 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>کی ام سی، T8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1840000000</v>
+        <v>2110000000</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / صدر</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار  مدارک آماده انتقال سند آزاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 314 رفیعی🚩
+☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2299,7 +2382,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2317,28 +2400,20 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>هیوندای، النترا</t>
+          <t>هیوندای، کونا</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2348,26 +2423,28 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2520000000</v>
+        <v>2500000000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>تهران / زعفرانیه</t>
+          <t>تهران / پونک</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فول کرمان موتور،۵گرم.۲سرد،ایربگ زانو،لیسه ۲طرف گلگیر عقب،(۱۰ سانت)،ضربه ترافیکی عقب که سینی عقب ضربه جزیی داشته و تعمیر شده،شاسی عقب و جلو کاملا سالم،(کارشناسی عبادی دارد)،
-انتن کوسه ای دارد،فنی کاملا سالم،از سال ۱۴۰۰ دست خودمون بوده</t>
+          <t xml:space="preserve"> توضیحات ✔نمایندگی مجاز کرمان موتور کد 1752 رفیعی ✔
+♦ثبت نام نقدی و اقساط 
+♦اقساط به صورت هر سه ماه یک بار و تاریخ اولین چک1404 /08 /15
+☎جهت کسب اطلاعات بیشتر تماس بگیرید.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>105,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2382,12 +2459,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>صافکاری بدون رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2402,24 +2479,24 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>9.6 ثانیه</t>
+          <t>10.8 ثانیه</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>2.0 لیتر</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>7.5 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>کی ام سی، T9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2429,25 +2506,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>2 لیتر توربو</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2010000000</v>
+        <v>2750000000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / پونک</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار  مدارک آماده انتقال سند آزاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات ^^^^^^^^نمایندگی مجاز کرمان موتور کد 1752 رفیعی^^^^^^^^
+⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
+⏮️ سند دسته اول به نام شما خریدار محترم 
+مزایا :
+✅صرفه جویی در زمان و هزینه
+✅بدون واسطه ،مستقیم از فروشنده
+✅خرید مطمئن و بدون دردسر
+☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2482,13 +2566,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
+          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>2.0 لیتر</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -2496,45 +2580,47 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>فولکس، ID.4 Crozz</t>
+          <t>فونیکس، تیگو 8 پرو مکس</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PURE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3620000000</v>
+        <v>3695000000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / شهرک راه‌آهن</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات  بدون کوچک ترین نقطه گارانتی فعال</t>
+          <t xml:space="preserve"> توضیحات تحویل فوری
+به شرط کارشناسی
+بختیاری</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>15,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>برقی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2549,68 +2635,76 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>خاکستری</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>داخل خاکستری</t>
+          <t>داخل موکا</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1 موتور الکتریکی</t>
+          <t>4 سیلندر توربوشارژ (4J20)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>9 ثانیه</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+          <t>8.1 ثانیه</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>7.9 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>پراید، 131</t>
+          <t>جک، جی 4</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>160000000</v>
+        <v>1050000000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>شهریار</t>
+          <t>تهران / صدر</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات دور رنگ سقف و ستون ها پلمپ
-شاسی عقب پلمپ و جلو جوش خورده 
-موتور فنی درجه ۱ فنی ترقه 
-بیمه ۱۰ ماه تازه بیمه کردم 
-دارای روکش صندلی، کف پایی یک تیکه چرم</t>
+          <t xml:space="preserve"> توضیحات توضیحات
+⭐ نمایندگی مجاز کرمان موتور کد 314 رفیعی نیا⭐
+⭐ فروش نقدی
+✔️تحویل فوری
+✔️خرید عالی و مطمئن</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>250,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2620,54 +2714,54 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>چند لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>نقره ای</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>داخل نقره ای</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>4 سیلندر یورو4 بهینه (M13)</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13.4 ثانیه</t>
+          <t>11 ثانیه</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1.3 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>6.4 لیتر در صد کیلومتر</t>
+          <t>6.2 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>شاهین، G دنده ای</t>
+          <t>ام وی ام، X33 کراس</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2677,25 +2771,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>700000000</v>
+        <v>1220000000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>هشتگرد</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات درحدنو فول با سانروف وکیلس ‌وصندلی چرمی ومانیتور ودوربین دنده عقب و گرمکن صندلی فابریک.تمام مصرفی ها تعویض شده شمع و وایر وکویل و روغن موتور</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+☜ مشاور و کارشناس شما : خانم جاوید
+◽️ ️تحویل به روز با سند و مدارک آماده .
+◽️️ خودرو  خشک ،قابل رویت حضوری .
+◽️️ حق کارشناسی قبل از خرید با شما .
+◽ ️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد .
+️✔ قابل معاوضه </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>107,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2723,31 +2823,15 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (M15T)</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>13.2 ثانیه</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>7.2 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>ریسپکت، پرایم</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2757,25 +2841,31 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>تیپ 2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>1955000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / اندرزگو</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار مدارک آماده انتقال سند آزاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات ✅امید گالری
+بیش از ۱۵ سال سابقه در خرید و فروش ماشین
+عضو رسمی اتحادیه
+تحویل فوری با امکان کارشناسی
+✅قیمت آخر را از ما بخواهید</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2810,54 +2900,71 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr"/>
+          <t>4 سیلندر توربوشارژ (4T15C)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>10.5 ثانیه</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>1.5 لیتر</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>7.5 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>پژو، 206</t>
+          <t>چانگان، CS 55 پلاس</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>تیپ 2</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>300000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>کرج / احدآباد</t>
+          <t>تهران / نیاوران</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ماشین فوق العاده تمیز ،فنی چک شده ، دور رنگ صرفا برای زیبایی ،ماشین بدون تصادف ،ماشین فابریک ،لطفا دلالان محترم تماس نگیرند</t>
+          <t xml:space="preserve"> توضیحات ⭐️✅کارشناس خودرو خانم سعادت✅
+⭐️✅فروش تخصصی خودروهای مونتاژ و وارداتی اقساط✅
+✅اقساط فقط با چک صیاد.تهران و شهرستان
+✅فروش خودرو مونتاژ و وارداتی به صورت نقدو اقساط✅
+️✅خودروها پلاک شده سند آزاد✅
+⏳ساعت مراجعه: 8:30 الی 17✅
+✨تحویل فوری✅
+✅**خانم سعادت**✅</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>250,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2867,12 +2974,12 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>دور رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2887,62 +2994,64 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>4 سیلندر TU3</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>14.1 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (JL473ZQ7)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1.4 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>6.4 لیتر در صد کیلومتر</t>
+          <t>6.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>پژو، 207</t>
+          <t>ریسپکت، پرایم</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>دنده ای TU5</t>
+          <t>تیپ 2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>750000000</v>
+        <v>1810000000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>آمل</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات بدون خرج همه کاراش رسیده</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما :آقای نعیم
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>56,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2952,7 +3061,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2962,7 +3071,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2972,63 +3081,69 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5</t>
+          <t>4 سیلندر توربوشارژ (4T15C)</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>11.6 ثانیه</t>
+          <t>10.5 ثانیه</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
+          <t>7.5 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>رنو، مگان (مونتاژ)</t>
+          <t>کی ام سی، X5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>715000000</v>
+        <v>1890000000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>شیراز / شهرک سراج</t>
+          <t>تهران / صدر</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات  بسیار سالم 
-قابل معاوضه</t>
+          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 314 رفیعی🚩
+⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
+⏮️ سند دسته اول به نام شما خریدار محترم 
+مزایا :
+✅صرفه جویی در زمان و هزینه
+✅بدون واسطه ،مستقیم از فروشنده
+✅خرید مطمئن و بدون دردسر
+☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>251,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3043,7 +3158,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>یک لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3053,70 +3168,61 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>داخل بژ</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>9.4 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (4GC16D)</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>7.8 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>تویوتا، کرولا کراس هیبرید</t>
+          <t>کی ام سی، J7</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4190000000</v>
+        <v>1840000000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / پونک</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات به نام خدا 
- -اسناد و مدارک جهت انتقال سند آماده میباشد
--خودرو‌ فول کامل کارشناسی شده
--کاملا مناسب برای مصرف کننده
--بیمه کامل و گارانتی فعال 
--بدون پرداخت کمیسیون 
--فروش به صورت نقدی
--با خیال راحت و بدون واسطه از ما خرید کنید 
-(جهت اطلاعات بیشتر و بازدید و هماهنگی تماس بگیرید درخدمت شما هستم یا علی)</t>
+          <t xml:space="preserve"> توضیحات ^^^^^^^^نمایندگی مجاز کرمان موتور کد 1752 رفیعی^^^^^^^^
+⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
+⏮️ سند دسته اول به نام شما خریدار محترم 
+مزایا :
+✅صرفه جویی در زمان و هزینه
+✅بدون واسطه ،مستقیم از فروشنده
+✅خرید مطمئن و بدون دردسر
+☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3126,7 +3232,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3141,7 +3247,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3151,62 +3257,58 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>4 سیلندر (M20G) با 1 موتور الکتریکی</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>7.4 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ TGDi</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>4.6 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>چانگان، CS 55 پلاس</t>
+          <t>فونیکس، تیگو 8 پرو مکس</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2760000000</v>
+        <v>3100000000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>کرج / عظیمیه</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار صفر خشک مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات  بدون آبرنگ و لیسه
+گارانتی فعال
+سرویس های دوره ای به موقع انجام‌ شده و سرویس های میان دوره ای هم در نمایندگی انجام شده
+فول ترین نسخه تیگو ۸ پرومکس ie
+فنی کاملا سالم و تمامی آپشن ها فعال میباشند</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>25,500 km</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3226,63 +3328,69 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>خاکستری</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل موکا</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (JL473ZQ7)</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>4 سیلندر توربوشارژ (4J20)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>8.1 ثانیه</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>2.0 لیتر</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
+          <t>7.9 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>فونیکس، FX</t>
+          <t>فونیکس، تیگو 8 پرو هیبرید</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>پریمیوم FWD</t>
+          <t>e پلاس</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>2510000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار   مدارک آماده انتقال سند آزاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 7 سال✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3292,7 +3400,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3317,63 +3425,63 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
+          <t>4 سیلندر توربوشارژ (4T15C) با 2 موتور الکتریکی</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>8 ثانیه</t>
+          <t>7.6 ثانیه</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
+          <t>6.5 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>تویوتا، کرولا کراس هیبرید</t>
+          <t>کی ام سی، J7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4190000000</v>
+        <v>1930000000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات  🔹 مدارک و سند آماده انتقال
-🔹 زیر قیمت بازار – قیمت واقعی و کاملاً مناسب
-🔹 فروش نقدی – به راحتی و بدون واسطه
-🔹 بیمه و گارانتی فعال – آسوده خاطر از بابت خدمات
-🔹 بدون کمیسیون – مناسب برای مصرف‌کننده واقعی
-🔹 فرصت عالی برای خرید – سریعاً اقدام کنید!
-🚗 خودرو صفر کیلومتر با بهترین شرایط برای شما!</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما :آقای نعیم
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3383,7 +3491,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3408,62 +3516,56 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>4 سیلندر (M20G) با 1 موتور الکتریکی</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>7.4 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ TGDi</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>4.6 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>رنو، تندر 90</t>
+          <t>فونیکس، تیگو 8 پرو مکس</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>495000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>تبریز</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فنی کاملا سالم و خیلی سرحال کاتالیست سالم اتاق کاملا بسته و بدون سر صدا سرمایش گراماش فوق العاده زیرپایی روکش مرتب و عالی بیمه ایران7ماه خیلی کم کارکرد و خانگی</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 7 سال✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>75,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3473,77 +3575,79 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>اتاق تعویض</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>داخل نوک مدادی</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>4 سیلندر توربوشارژ (4J20)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>10.2 ثانیه</t>
+          <t>8.1 ثانیه</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>2.0 لیتر</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>6.9 لیتر در صد کیلومتر</t>
+          <t>7.9 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>فونیکس، FX</t>
+          <t>فونیکس، آریزو 8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>پریمیوم AWD</t>
+          <t>اکسلنت</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>2760000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار صفر خشک مدارک آماده انتقال سند آزاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 7 سال ✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3578,70 +3682,68 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
+          <t>4 سیلندر توربوشارژ (4J20)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>9.6 ثانیه</t>
+          <t>7.6 ثانیه</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>2 لیتر</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>7.4 لیتر در صد کیلومتر</t>
+          <t>6.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>رنو، تندر 90</t>
+          <t>کی ام سی، J7</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>390000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>تهران / تهران‌سر</t>
+          <t>تهران / صدر</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات 🔧 فنی کاملاً سالم، موتور و گیربکس بدون کوچک‌ترین ایراد 
-🎨 بدنه بدون تصادف 
-🛡 بیمه ۹ ماه 
-✔️ معاینه فنی دارد 
-✔️ مصرف پایین، مناسب سفر و استفاده شهری
-لطفاً فقط خریدار واقعی تماس بگیره، دلال تماس نگیره 🙏
-کم شنوا هستم پیامک بدید
-و قیمت مقطوع هست یا تخفیف خیلی جزئی میدم پشت خط تقاضای تخفیف نفرمایید اول ماشین ببینید 
-تشکر </t>
+          <t xml:space="preserve"> توضیحات توضیحات
+⭐ نمایندگی مجاز کرمان موتور کد 314 رفیعی نیا⭐
+⭐ فروش نقدی
+✔️تحویل فوری
+✔️خرید عالی و مطمئن</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>234,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3651,7 +3753,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3661,67 +3763,61 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>نقره ای</t>
+          <t>خاکستری</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>داخل طوسی</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>10.2 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ TGDi</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>6.9 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ب ام و، سری 7</t>
+          <t>فونیکس، FX</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>730li</t>
+          <t>پریمیوم FWD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>22500000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>تهران / الهیه</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات روبی بلک-خشک -فول تیر خلاص-ایندیویژوال</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -3746,76 +3842,78 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>داخل تارتوفو</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ</t>
+          <t>4 سیلندر توربوشارژ (4J16)</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>6.3 ثانیه</t>
+          <t>8 ثانیه</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>6.2 لیتر در صد کیلومتر</t>
+          <t>6.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>نیسان، ماکسیما</t>
+          <t>فونیکس، FX</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1383</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>پریمیوم FWD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>755000000</v>
+        <v>2590000000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>تهران / اندیشه (شهر زیبا)</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات و موتور روی ماشین ارسال از دبی بسیار سرحال و آماده مسافرت بدون خرج هست و ثبت در سند قانونی. کولر روشن.
-12 ماه بیمه.به علت اینکه ماشین چند ماه خواب بود باتری عوض شده. برای داخل شهر از ماشین دیگری استفاده میشود.
-مانیتور لمسی اندروید ، کنترل روی فرمال و روکش چرم درجه یک و کفی پنج بعدی در کف و صندوق دارد.
-تمام مصرفی ها و روغن به موقع تعویض شده.کمک فنر، سیبک، طبق، میل تعادل ،اکسل ، بوش، توپی سرکمک تعویض شده و ماشین نرم و کابین بیصدا است.
-لنت نو و اصل و لاستیک ۸۰درصد</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+☜ مشاور و کارشناس شما : خانم جاوید
+◽️ ️تحویل به روز با سند و مدارک آماده .
+◽️️ خودرو خشک ،قابل رویت حضوری .
+◽️️ حق کارشناسی قبل از خرید با شما .
+◽ ️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد .
+️✔ قابل معاوضه </t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>362,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3825,77 +3923,79 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>کامل رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>نقره ای</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>داخل خاکستری</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>6 سیلندر</t>
+          <t>4 سیلندر توربوشارژ (4J16)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>8.4 ثانیه</t>
+          <t>8 ثانیه</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>3 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>10.3 لیتر در صد کیلومتر</t>
+          <t>6.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>تویوتا، کرولا کراس هیبرید</t>
+          <t>فونیکس، تیگو 7 پرو مکس</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>1.6 لیتر توربو 2WD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>4190000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>تهران / سعادت‌آباد</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فروش فوری زیر قیمت بازار   مدارک آماده انتقال سند ازاد گارانتی فعال تحویل فوری لطفا فقط تماس بگیرید عرشیا نادری</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3905,7 +4005,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3920,7 +4020,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>نوک مدادی</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3930,44 +4030,40 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>4 سیلندر (M20G) با 1 موتور الکتریکی</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>7.4 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (4J16)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>4.6 لیتر در صد کیلومتر</t>
+          <t>8.5 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>پژو، پارس</t>
+          <t>فونیکس، تیگو 7 پرو هیبرید</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1384</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>XU7</t>
+          <t>e پلاس</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3977,37 +4073,37 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ساری</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات سلام، ماشین سر حاله دیسک صفحه تازه عوض شده! لاستیک نو، بیمه ۱۰ ماه داره، موتور سالم! کولر روشن، ماشین خوبیه از سال ۹۵ دست خودم بوده مناسب مصرف کننده،</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 7 سال ✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود.</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>390,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>چند لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>نقره ای</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4017,74 +4113,74 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>4 سیلندر XU7</t>
+          <t>4 سیلندر توربوشارژ (4T15C) با 2 موتور الکتریکی</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>11 ثانیه</t>
+          <t>7.5 ثانیه</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1.8 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>9.1 لیتر در صد کیلومتر</t>
+          <t>5.9 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>پراید، صندوق دار</t>
+          <t>فونیکس، تیگو 7 پرو</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>پریمیوم</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>205000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>کرمان</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات  وضعیت فنی: سالم 
- بیمه: فقط یک ماه مونده 
-</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>340,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>دوگانه سوز</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4094,7 +4190,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -4102,30 +4198,42 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربو شارژ</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>8.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>رنو، مگان (مونتاژ)</t>
+          <t>فونیکس، آریزو 6 جی تی</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1392</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>اکسلنت</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4135,17 +4243,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>قائم شهر</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات بسیار سالم بدون خط و خش لاستیک ها نو دارای مانیتور بزرگ و دوربین و سنسور دنده عقب دارای سنسور نور و باران روغن موتور و گیربکس به همراه کلیه فیلتر ها و کیت کامل تسمه تایم و تسمه دینام تعویض شده</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>68,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4160,77 +4268,79 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>دو لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>داخل کرم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>4 سیلندر توربوشارژ (4J16)</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>9.4 ثانیه</t>
+          <t>7.6 ثانیه</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>7.8 لیتر در صد کیلومتر</t>
+          <t>6.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>تیبا، صندوق دار</t>
+          <t>فونیکس، آریزو 6 پرو</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SX بنزینی</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>420000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>تهران / پونک</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات تک برگ سند ،جلوبندی و لنت ها تازه تعویض شده</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>55,600 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4240,7 +4350,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -4250,22 +4360,22 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>داخل نقره ای</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>4 سیلندر M15</t>
+          <t>4 سیلندر توربوشارژ (4T15C)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>13 ثانیه</t>
+          <t>10.5 ثانیه</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -4282,40 +4392,42 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>کیا، ریو (مونتاژ)</t>
+          <t>ام وی ام، X55 PRO</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>350000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>کرج / جهان‌شهر</t>
+          <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات شاسی عقب و جلو سالم و پلمپ فنی عالی گاز کولر تازه تمدید شده تمام قطعات تعویضی استوک و با حساسیت جایگزین شده</t>
+          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>208,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4325,44 +4437,36 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>چند لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>یاسی</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>داخل نقره ای</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>11.3 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ بهینه شده</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>1.5 لیتر</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>7 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4382,32 +4486,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>1840000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>تهران / آزادی</t>
+          <t>تهران / اندرزگو</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ⚜️نمایندگی رسمی کرمان موتور کد ۱۷۷۷ (گروه خودرویی حیدری)⚜️
-✅ انتخاب رنگ به دلخواه مشتری
-✅ سند 6 دانگ به نام
-✅ بازرسی فنی پیش از تحویل
-✅ مجری طرح تعویض خودروهای کارکرده با صفر
-✅️نماینده برتر فروش محصولات کرمان موتور کشور✅️
-⚜️بزرگترین نمایندگی کرمان موتور در کل کشور⚜️
-⚜️مناسبترین قیمتها را از ما بخواهید⚜️
-⚜️فروش و خدمات پس از فروش⚜️
-⚜️ضمانت کارشناسی بدنه و خوردو⚜️
-⚜️طرح جایگزینی خودرو کارکرده شما با خودروهای صفر⚜️
-⚜️قیمتها کاملا قطعی و تمام شده میباشد⚜️
-خانم عزیزی</t>
+          <t xml:space="preserve"> توضیحات ✅امید گالری
+بیش از ۱۵ سال سابقه در خرید و فروش ماشین
+عضو رسمی اتحادیه
+تحویل فوری با امکان کارشناسی
+✅قیمت آخر را از ما بخواهید</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4432,7 +4530,7 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4456,41 +4554,41 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>هیوندای، توسان</t>
+          <t>کی ام سی، T9</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2.0 لیتر تک دیفرانسیل</t>
+          <t>2 لیتر توربو</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2750000000</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>تهران / شهرک ژاندارمری</t>
+          <t>تهران / صدر</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات  خشک ثبت نامی 
-مدارک آماده نقل انتقال 
-گارانتی فعال 
-لطفاً متقاضی مصرف کننده تماس بگیرد
-قابل معاوضه با خودرو ارزانتر </t>
+          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 314 رفیعی 🚩
+✔تحویل : فقط 20 روز کاری 
+✔سند: تک برگ ، مستقیم به نام خریدار 
+✔حواله شرکتی معتبر 
+📈مزایا :
+✅صرفه جویی در زمان و هزینه 
+☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -4515,7 +4613,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -4525,65 +4623,60 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>4 سیلندر (G4NL)</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>11.4 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>8.3 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ب ام و، X4</t>
+          <t>هایما، S5</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>6 سرعته اتوماتیک</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1840000000</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>تهران / شهرک ژاندارمری</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات تحویلی از نمایندگی بی ام و در سال ۱۳۹۷ طبق اسناد مدارک موجود طی ۵سال گذشته در پارکینگ مسقف مجتمع غیر قابل استفاده بوده سند دست اول مناسب مصرف کننده ۷رادار با هوک برقی
-قابل معاوضه با خودرو ارزانتر </t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم شریفی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>17,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4613,58 +4706,61 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (N20B20)</t>
+          <t>4 سیلندر توربوشارژ</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>6.4 ثانیه</t>
+          <t>9 ثانیه</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>7.4 لیتر در صد کیلومتر</t>
+          <t>8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>تویوتا، لوین</t>
+          <t>پیش فروش کی ام سی، ایگل</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1.2 لیتر توربو</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>2700000000</v>
+        <v>1050000000</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>شمیرانات</t>
+          <t>تهران / رسالت</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ماشین در پارکینگ شخصى
-مدارک اماده انتقال</t>
+          <t xml:space="preserve"> توضیحات ⭕ نمایندگی رسمی کرمان موتور مرادی کد 1751 ⭕
+✅ تحویل 20 روز کاری 
+✅حواله معتبر شرکتی سند از کمپانی بنام خریدار
+✅ فرصت استثنائی با تعداد محدود
+@@جهت کسب اطلاعات بیشتر با ما در ارتباط باشید.</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4699,66 +4795,68 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (9NR-FTS)</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>10.1 ثانیه</t>
+          <t>12.5 ثانیه</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>1.2 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>5.9 لیتر در صد کیلومتر</t>
+          <t>6.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ب ام و، سری 3 کروک</t>
+          <t>فیدلیتی، پرستیژ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>325i</t>
+          <t>تیپ 1 پنج نفره</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4250000000</v>
+        <v>3400000000</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>تهران / زعفرانیه</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات داخل کابین و بدنه در حد صفر
-موتور بدون ارور و کاملا مشابه صفر
-بدنه بدون خط و خش 
-رینگ و لاستیک کاملا نو
-بیمه ۱۰ ماه دارد</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما :آقای نعیم
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>55,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4778,69 +4876,73 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>بژ</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>داخل بژ</t>
+          <t>داخل موکا</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6 سیلندر</t>
+          <t>4 سیلندر توربوشارژ (4J16)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>8.1 ثانیه</t>
+          <t>9.9 ثانیه</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>3 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>7.9 لیتر در صد کیلومتر</t>
+          <t>8.2 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>هیوندای، النترا</t>
+          <t>فولکس، ID.4 Crozz</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>PURE PLUS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3980000000</v>
+        <v>7300000000</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>تهران / شهران شمالی</t>
+          <t>تهران / آجودانیه</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات مخاطب گرامی در صورتی که قصد مقایسه این خودروی صفر ساخت کره با خودروهای وارداتی جدید کم توان و کم آپشن ساخت چین را دارید لطفا تماس نگیرید . کیفیت و مزایای این خودرو نسبت به وارداتی های جدید با اختلاف برتر هست 
-فولترین حالت ممکن  .ترخیص 2020 گارانتی کرمان موتور-مانیتور بزرگ-انتن کوسه ایی-سیستم صوتی اینفینیتی-5گرم 2 سرد-رادار نقطه کور-اتوترانک-مموری صندلی و برقی-اتو ترانک و ../
-دست اول هست و شخصآ از کمپانی تحویل گرفتم.اصلا راه نرفته و کاملا خشک- از ابتدا زیر چادر بوده و هیچ ضعفی ندارد.</t>
+          <t xml:space="preserve"> توضیحات ✅️نمایندگی رسمی ماموت خودرو
+✅️نقد و اقساط
+✅️خدمات vip
+✅️قوی ترین مدل برقی فولکس واگن
+✅️طرح تعویض خودرو های کارکرده
+✅️کارشناس فروش
+✅️مصطفی مشهدی</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -4850,7 +4952,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>برقی</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4865,7 +4967,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -4873,64 +4975,54 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>4 سیلندر MPi</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>9.6 ثانیه</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>7.5 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ام وی ام، 110</t>
+          <t>اکستریم، VX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1385</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>3 سیلندر</t>
+          <t>2.0 لیتر توربو</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>157000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>مشهد / طرق</t>
+          <t>تهران / اندرزگو</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات موتور تازه تعمیر بدون روغن سوزی و روغن ریزی جلوبندی تازه تعمیر دارای لوازم باند حرفه ای امپ خور پخش امپ خور چراغ مزاحم گیر عقب و هدلایت برای چراغهای جلو با پرتاب نور کیلومتری دارای دو نوع بوق در ضمن خوردروی فوق ریمپ شده است دارای کنسول وسط ماشین خدایی سالمیه بدون پوسیدگی علت فروش فقط بخاطر این که صندوق ندارد</t>
+          <t xml:space="preserve"> توضیحات ✅امید گالری
+بیش از ۱۵ سال سابقه در خرید و فروش ماشین
+عضو رسمی اتحادیه
+تحویل فوری با امکان کارشناسی
+✅قیمت آخر را از ما بخواهید</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>244,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4940,96 +5032,91 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>دو لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>نقره ای</t>
+          <t>خاکستری</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>داخل کرم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>3 سیلندر</t>
+          <t>4 سیلندر توربوشارژ (4J20)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>18.7 ثانیه</t>
+          <t>9 ثانیه</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0.8 لیتر</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>3.7 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>پژو، پارس</t>
+          <t>سوزوکی، فرانکس هیبرید</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>XU7</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>11 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>395000000</v>
+        <v>2750000000</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>بستک</t>
+          <t>تهران / قیطریه</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فقط دور شیشه جلو و عقب و لبه گلگیرها رنگ جهت زیبایی
-لاستیک205-100٪؜
-باتری نو
-دیسک صفحه دوماه تعویض
-رخ ماشین در حد 99 عروسک</t>
+          <t xml:space="preserve"> توضیحات ماشین تازه تحویل گرفته شده
+موجود در نمایشگاه 
+امکان بازدید و کارشناسی قبل از هرگونه واریزی
+جهت خرید فقط تماس بگیرین</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>310,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5039,17 +5126,17 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>نقره ای</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>داخل بژ</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>4 سیلندر XU7</t>
+          <t>4 سیلندر هیبرید ملایم (K15C)</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -5059,47 +5146,56 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>1.8 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>9.1 لیتر در صد کیلومتر</t>
+          <t>5.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>دنا، پلاس EF7P</t>
+          <t>فونیکس، تیگو 7 پرو</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6 دنده</t>
+          <t>پریمیوم</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>1200000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>شیراز / پودنک</t>
+          <t>تهران / آجودانیه</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فقط تماس جوابگو هستم ممنونم .ماشین </t>
+          <t xml:space="preserve"> توضیحات ✅️نمایندگی خسروانی
+✅️نقد و اقساط
+✅️همراه با کارشناسی
+✅️خرید امن و مطمئن
+✅️بدون کوچک ترین هزینه اضافی
+✅️طرح تعویض خودرو های کارکرده
+✅️کارشناس فروش
+✅️مصطفی مشهدی</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5114,7 +5210,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -5129,71 +5225,66 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>داخل گیلاسی</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>4 سیلندر EF7P</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>12 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربو شارژ</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>1.7 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>6.9 لیتر در صد کیلومتر</t>
+          <t>8.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>پژو، 206</t>
+          <t>جک، جی 4</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>تیپ 2</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>590000000</v>
+        <v>1050000000</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>کرج / جهان‌شهر</t>
+          <t>تهران / پونک</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات کم کارکرد
-تعویض روغن هر ۵ هزارکیلومتر،کاسترول مگناتک اصلی
-تعویض باندهای درب جلو و نصب باندهای درب عقب
-سنسور عقب
-بازدید = خرید</t>
+          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 1752 رفیعی 🚩
+✔تحویل فوری و نقدی
+✔موجود در نمایندگی * 
+☎جهت کسب اطلاعات بیشتر با ما در تماس باشید.</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>41,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5203,7 +5294,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -5213,7 +5304,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>قرمز</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5223,83 +5314,88 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>4 سیلندر TU3</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>14.1 ثانیه</t>
+          <t>11 ثانیه</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>1.4 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>6.4 لیتر در صد کیلومتر</t>
+          <t>6.2 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>پراید، 132</t>
+          <t>ام وی ام، X55 PRO</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ساده</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>180000000</v>
+        <v>1870000000</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>نیشابور</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات موتوری و فنی عالی
-مدارک کامل</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+☜ مشاور و کارشناس شما : خانم جاوید
+◽️ ️تحویل به روز با سند و مدارک آماده .
+◽️️ خودروخشک ،قابل رویت حضوری .
+◽️️ حق کارشناسی قبل از خرید با شما .
+◽ ️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد .
+️✔ قابل معاوضه</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>57,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>دوگانه سوز</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>گلگیر رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>خاکستری</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5307,15 +5403,23 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ بهینه شده</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>تارا، اتوماتیک V4</t>
+          <t>کی ام سی، ایگل</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5325,29 +5429,35 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1400000000</v>
+        <v>1050000000</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>شیراز / شهرک امیر کبیر</t>
+          <t>تهران / آجودانیه</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات دوستان سلام
-تحویل دود روز پیش نمایندگی هست
-با توجه به افزایش قیمت ها که به زودی اعلام میشه قیمت خیلی بالا میاره
-در خدمت شما هستیم
-</t>
+          <t xml:space="preserve"> توضیحات ✅️نمایندگی برتر کرمان موتور در کشور
+(خسروانی)
+✅️طرح تعویض خودرو های کارکرده
+✅️فروش به صورت نقد و اقساط
+✅️اقساط ۱۲ الی ۶۰ ماه
+✅️تحویل ۲۰ روزه
+✅️سند ۶ دانگ به نام
+✅️خرید به صورت حضوری و غیره حضوری
+✅️ثبت نام به همراه عقد قرارداد
+👨‍💼کارشناس فروش
+مصطفی مشهدی</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5372,72 +5482,78 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>تیتانیوم</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>داخل تیتانیوم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5 پلاس</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13 ثانیه</t>
+          <t>12.5 ثانیه</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>7.3 لیتر در صد کیلومتر</t>
+          <t>6.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>کوییک، دنده ای</t>
+          <t>دیگنیتی، پرایم</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>420000000</v>
+        <v>2100000000</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>سیرجان</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ماشین از بدنه وشاسی،موتوررعایت ونگهداری شده وبسیارسالم وتمیزمیباشد،ازلحاظ انتقال سندهیچگونه مشکلی ندارد،بیمه ثالث و بدنه ۸ماه دارد،باخریدارتاجای امکان کنار میام.</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم شریفی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>70,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5447,7 +5563,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5462,12 +5578,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل مارون</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4 سیلندر M15 یورو4</t>
+          <t>4 سیلندر توربوشارژ (SFG15T)</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -5482,50 +5598,54 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>7 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>پژو، 206</t>
+          <t>کی ام سی، J7</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>تیپ 2</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>590000000</v>
+        <v>1840000000</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>کرج / جهان‌شهر</t>
+          <t>تهران / آجودانیه</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات کم کارکرد
-تعویض باندهای درب جلو و نصب باندهای درب عقب
-سنسور عقب
-بازدید= خرید</t>
+          <t xml:space="preserve"> توضیحات ✅️شرایط فروش عالی
+✅️نقد و اقساط
+✅️نمایندگی رسمی 
+✅️خسروانی
+✅️ثبت نام تحویل ۲۰ روزه
+✅️برای شرایط عالی اقساط لطفا تماس بگیرید
+👨‍💼کارشناس فروش
+مصطفی مشهدی</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>41,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5535,7 +5655,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5545,7 +5665,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>قرمز</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -5555,64 +5675,60 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>4 سیلندر TU3</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>14.1 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ TGDi</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>1.4 لیتر</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>6.4 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>هیوندای، توسان</t>
+          <t>کی ام سی، T9</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2.0 لیتر دو دیفرانسیل</t>
+          <t>2 لیتر توربو</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2990000000</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>تهران / مرزداران</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فول کامل شرکتی اسان موتور(( سند دست اول)) بمدت ۶سال استفاده نشده است کاملا سالم و خانگی مشابه صفرکیلومتر کمپانی میباشد .مناسب مصرف کننده. لاستیک اورجینال خود خودرو بوده تعویض نشده است. بدون توضیح. لطفا مصرف کننده.به تضمین کارشناس منتخب خریدار محترم.</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم شریفی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>9,600 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5632,7 +5748,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>قهوه ای</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -5642,65 +5758,61 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>11.8 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>8.3 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ب ام و، سری 4 گرن کوپه</t>
+          <t>کی ام سی، X5</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>428i</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>7250000000</v>
+        <v>1890000000</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>قم / بلوار امین</t>
+          <t>تهران / پونک</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات سلام
-۳‌کلید با‌تابلو‌خوان
-سیستم هارمن
-کیت رموس</t>
+          <t xml:space="preserve"> توضیحات ^^^^^^^^نمایندگی مجاز کرمان موتور کد 1752 رفیعی^^^^^^^^
+⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
+⏮️ سند دسته اول به نام شما خریدار محترم 
+مزایا :
+✅صرفه جویی در زمان و هزینه
+✅بدون واسطه ،مستقیم از فروشنده
+✅خرید مطمئن و بدون دردسر
+☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>58,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5720,74 +5832,70 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>داخل قرمز</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>5.9 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (4GC16D)</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>5.8 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>تویوتا، پرادو  چهار در</t>
+          <t>چانگان، CS 55 پلاس</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>6 سیلندر آفرود</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2920000000</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>تهران / الهیه</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات سند تک برگ ،ریموت جدا گانه انجین استارت ،حرکت کرال یا خرچنگی، آفرود صخره ،سیستم صوتی JBL دو تیکه ،تهویه هوشمند ، گرمکن صندلی ، شیب سنج ، دفلاک ، درایو مد ، ESP ، چراغ شور ، سنسور نور و باران ، کروز کنترل ، کیلس استارت ، ۵ دوربین ، زاپاس پشت ، برق 120 و 220 ، تنظیم ارتفاع ، مموری صندلی ، سقف سانروف ، کول باکس ، کولر دوآل ، تنظیم فرمان برقی ،7نفره ردیف سوم برقی ،دو باک ، آینه ها فتوکرومیک ، فول ایربگ،کلیه سرویسها در نمایندگی انجام شده و قابل استعلام است </t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم الماسی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>247,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5807,79 +5915,74 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>سفید صدفی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>داخل کرم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>6 سیلندر</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>9 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (JL473ZQ7)</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>4 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>13 لیتر در صد کیلومتر</t>
+          <t>6.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>بنز، کلاس CLA</t>
+          <t>ریسپکت، پرایم</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CLA45</t>
+          <t>تیپ 2</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1770000000</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>تهران / قیطریه</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات تمام تغییرات توسط خود کارخانه بنز آلمان انجام شده و کوچکترین تغییری توسط شرکت های متفرقه انجام نشده،
-از پمپ باد اورجینال تا دستگیره های کاپوت همه مطابق ادیشن ماشین زرد هست
-تنها نمونه موجود در کشور که واردات زیر نظر خودم‌ انجام شده و از اول دست خودم بوده
-بیرنگ، بدنه کاملا بی خط و خش
-ریس، دمپر، صندلی های اسپرت، اپل کار پلی، صندلی ها هر دو طرف مموری، گرمکن، فول کامل
-خودرو هر ۶۰۰۰ کیلومترسرویس شده و قابل استعلام میباشد</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم شریفی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>68,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5899,7 +6002,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -5909,29 +6012,29 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ</t>
+          <t>4 سیلندر توربوشارژ (4T15C)</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>4.6 ثانیه</t>
+          <t>10.5 ثانیه</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>7.4 لیتر در صد کیلومتر</t>
+          <t>7.5 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>لاماری، ایما</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5941,12 +6044,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>اتوماتیک TU5P</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5956,12 +6059,16 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>تهران / جمهوری</t>
+          <t>تهران / اندرزگو</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات خودرو تحویل شده </t>
+          <t xml:space="preserve"> توضیحات ✅امید گالری
+بیش از ۱۵ سال سابقه در خرید و فروش ماشین
+عضو رسمی اتحادیه
+تحویل فوری با امکان کارشناسی
+✅قیمت آخر را از ما بخواهید</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -5986,7 +6093,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5996,59 +6103,55 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4A95TD)</t>
+          <t>4 سیلندر TU5P</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>9.5 ثانیه</t>
+          <t>12.6 ثانیه</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr"/>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>7.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>تویوتا، کمری هیبرید</t>
+          <t>فونیکس، FX</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2.5 لیتر پریمیوم ادیشن</t>
+          <t>پریمیوم FWD</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>2400000000</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>تهران / اتحاد</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات تولید ژاپن، سفارش سعودی ، تمام کلید ، صندلی چرم و دارای پنج سیستم رانندگی و دیگر آپشن های روز ژاپنی، کروز کنترل، نقطه کور، سنسورهای تصادف، اتولایت، پنج مد رانندگی، ترمز اتومات در هنگام تصادف، دوربین ۳۶۰، پرده عقب هوشمند، تنظیم باد و ….
-کلیه متعلقا از جمله چادر دو لایه جذب و ضد آب، کمپرسور باد، زاپاس رینگ و لاستیک تمام ژاپنی و …
-بازدید از ۹ صبح تا ۵ بعد از ظهر</t>
-        </is>
-      </c>
+          <t>اصفهان / آذر</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6056,7 +6159,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -6071,60 +6174,75 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>داخل شتری</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
+          <t>داخل مشکی</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ (4J16)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>8 ثانیه</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>6.8 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ولوو، XC90</t>
+          <t>کی ام سی، ایگل</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>اینسکریپشن</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1050000000</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>تهران / شهرک غرب</t>
+          <t>تهران / پیروزی</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ((سند دست اول)) بسیار سالم و خانگی بمدت ۴سال استفاده نشده است.
-فول کامل Inscription (اینسکریپشن) رادارها کامل سیستم صوتی باورز و تنظیم ارتفاع شیشه رفلکس 2 جداره و هداپ دیسپلی انجین استارت گرم کن سردکن اتو پارک دوربین 360درجه رکاب و باربند اورجینال خودرو میباشد. بدون هیچگونه زدگی و خوردگی. ایده ال برای مصرف شخصی. قابل معاوضه. 
-بازدید =خرید. به تضمین کارشناس خریدار محترم.</t>
+          <t xml:space="preserve"> توضیحات ⭐⭐ نمایندگی مجاز کرمان موتور کد 1762 رفیعی نیا⭐⭐
+سند ازاد و قابل انتقال
+تحویل فوری
+جهت خرید و بازدید خودروتماس بگیرید</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>46,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6149,79 +6267,73 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>داخل شتری</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ و سوپرشارژ T6</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>6.9 ثانیه</t>
+          <t>12.5 ثانیه</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>7.7 لیتر در صد کیلومتر</t>
+          <t>6.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>هیوندای، سانتافه</t>
+          <t>کی ام سی، J7</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4 سیلندر دو دیفرانسیل</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4050000000</v>
+        <v>1930000000</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>تهران / مرزداران</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات بدونه خط و خش و لیسه و هرگونه pdr
-🔹 کاور آلمانی TechWrap سفید ساتن مات (۱۵۰ میلیون هزینه شده)
-🔹 کارکرد واقعی فقط ۱۱,۰۰۰ کیلومتر به شرط کارشناسی
-🔹 فول‌ترین مدل شرکتی (آسان موتور) با همه آپشن‌ها:
-	•	سقف پانوراما
-	•	صندلی برقی، گرم‌کن و سردکن
-	•	دوربین ۳۶۰
-	•	سنسور نقطه کور
-	•	سیستم صوتی حرفه‌ای
-	•	و کلی آپشن دیگه…
-🛠️ وضعیت فنی و بدنه در حد صفر
-🚙 فقط مصرف شخصی بوده، پارکینگی و فوق‌العاده تمیز
-📞 تماس بگیرید برای بازدید، ارزش دیدن داره</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم الماسی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6241,7 +6353,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -6251,64 +6363,60 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4 سیلندر GDi: سفارشی</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>11.6 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ TGDi</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2.4 لیتر</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>8.5 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>تویوتا، پرادو دو در</t>
+          <t>فیدلیتی، پرایم</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>تیپ 2 هفت نفره</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>2270000000</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>تهران / شهرک غرب</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات باسلام.در نگهداری خودرو حداکثر تلاش گردیده و رانندگی با متانت و ارامی صورت گرفته است مطمعنا که موجب کسب رضایت خریدار واقع میشود ۱۲ سال مالک هستم. فول کامل با ABS سانروف اینه تاشو برقی کول باکس. لطفا مصرف کننده. قابل معاوضه.</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم شریفی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>156,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6328,68 +6436,73 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>داخل کرم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>4 سیلندر توربوشارژ (4T15C)</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>13.5 ثانیه</t>
+          <t>11.9 ثانیه</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2.7 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>12.4 لیتر در صد کیلومتر</t>
+          <t>8.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>کوییک، دنده ای</t>
+          <t>کی ام سی، X5</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>570000000</v>
+        <v>1940000000</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>تهران / منیریه</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات بیمه تا 9ماه دارد
-کارت سوخت 360 لیتر</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم الماسی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -6404,7 +6517,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -6424,59 +6537,50 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4 سیلندر M15 یورو4</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>13 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (4GC16D)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>1.5 لیتر</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>7 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>لوکانو، L7</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1.6 لیتر توربو</t>
+          <t>پانوراما اتوماتیک TU5P</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1140000000</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>تهران / جمهوری</t>
+          <t>تهران / باغ فیض</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات (((اتوخسروانی شعبه جمهوری)))گرمکن سرد کن ماساژور .رادارها کامل.دوربین ۵۴۰ درجه .تهویه دوآل .هداپ .صندوق برقی .دو دیفرانسیل . سقف سانروف پاروما .هفت سال گارانتی .یکسال گارانتی تعویض. ماشین موجود در نمایشگاه و قابل بازدید</t>
+          <t xml:space="preserve"> توضیحات بیمه ثالث تا ۱۴۰۴.۱۱.۱۷
+ خشک</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -6501,7 +6605,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -6509,31 +6613,15 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>8 ثانیه</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>7.4 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>تیگارد، X35 پلاس</t>
+          <t>کی ام سی، T8</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6543,25 +6631,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>500000000</v>
+        <v>1010000000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>تهران / جمهوری</t>
+          <t>تهران / 17 شهریور</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات (((اتوخسروانی شعبه جمهوری ))) ثبت نام شرکتی تیگارد نمایندگی ۱۱۱۳ . پیش پرداخت 500 . یکماه بعد 100 . دو ماه بعد 100 .زمان صدور دعوتنامه 100 با کسر سود مشارکت . الباقی اقساط 12 . 24 یا 60 ماهه . تحویل مهرماه</t>
+          <t xml:space="preserve"> توضیحات ⚜نمایندگی مجاز کرمان موتور ⚜
+▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪ Rafiee Motor ▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪
+⬛◻◾ آغاز ثبت نام اقساطی با پیش پرداخت به مبلغ درج شده ◾◻⬛
+✔انتخاب رنگ به انتخاب متقاضی : سفید، مشکی، آبی، قرمز
+✔دارای بیمه بدنه تا پایان اقساط 
+✔اقساط 12 ماه و 24 ماه 
+❌ظرفیت و مهلت محدود ❌
+☎برای اطلاعات بیشتر با کارشناسان ما در ارتباط باشید ☎</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -6576,7 +6671,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -6586,7 +6681,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>تیتانیوم</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -6602,42 +6697,46 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>چانگان، CS 35 پلاس</t>
+          <t>رنو، تندر 90</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>تیپ 3</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>440000000</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>تهران / جمهوری</t>
+          <t>اهواز / فرهنگ شهر</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات (((اتوخسروانی شعبه جمهوری))) ماشین در حد صفر با ۷۵۰ تا دونه کارکرد موجود و قابل بازدید با برگه کارشناسی</t>
+          <t xml:space="preserve"> توضیحات با سلام.
+ماشین کاملا خونگی و کم کارکرد
+موتور، گیربکس و کولر کاملاً سالم - داخل کابین و رخ ماشین عالی
+سند تک برگ
+قیمت بر مبنای دور رنگ کامل اعلام کردم ولی حدود 50 درصد رنگ دارد
+فروش فقط به مصرف کننده و به شرط تعویض پلاک فوری
+بازدید از ساعت 7 تا 17 با هماهنگی</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>750 km</t>
+          <t>97,000 km</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6647,17 +6746,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>دور رنگ</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>قرمز</t>
+          <t>نقره ای</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6667,55 +6766,57 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (JL473ZQ9)</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr"/>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>10.2 ثانیه</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>1.4 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>7.6 لیتر در صد کیلومتر</t>
+          <t>6.9 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ام وی ام، X33 کراس</t>
+          <t>ام وی ام، X55 PRO</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1890000000</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>تهران / جمهوری</t>
+          <t>تهران / حسن‌آباد</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات (((اتوخسروانی شعبه جمهوری))) ماشین موجود و قابل بازدید با برگه کارشناسی</t>
+          <t xml:space="preserve"> توضیحات مدارک کامل و آماده انتقال</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -6740,7 +6841,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
@@ -6750,60 +6851,63 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>3 سیلندر توربوشارژ</t>
+          <t>4 سیلندر توربوشارژ بهینه شده</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>1.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>6.1 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>هوندا، آکورد</t>
+          <t>جک، S3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EX</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>335000000</v>
+        <v>1100000000</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>یزد</t>
+          <t>تهران / 17 شهریور</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ماشین بسیار سالم 
-سند دو برگ 
-مناسب برای مصرف کننده</t>
+          <t xml:space="preserve"> توضیحات 🔴نمایندگی مجاز کرمان موتور رفیعی نیا🔴
+شرایط فروش نقد و اقساط:
+✅اقساط : 12 الی 18 ماهه
+✅بدون ضامن _ فقط با چک صیادی
+✅سند به نام خریدار | تحویل 60 روزه کاری
+مزایا :
+✅صرفه جویی در زمان و هزینه
+✅بدون واسطه ،مستقیم از کارخانه
+✅خرید مطمئن و بدون دردسر
+☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید.</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>400,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -6813,67 +6917,90 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>دو لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>سرمه ای</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>داخل نقره ای</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
+          <t>داخل مشکی</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>10.8 ثانیه</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>7.6 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>پژو، پارس</t>
+          <t>کی ام سی، T9</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>XU7</t>
+          <t>2 لیتر توربو</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>650000000</v>
+        <v>2750000000</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ری</t>
+          <t>تهران / 17 شهریور</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات سلام ماشین فوق کاملا سالم بوده و در حدصفر است 
-لاستیک ۸۰ درصد و کفی سه بعدی و بدون خط و خش</t>
+          <t xml:space="preserve"> توضیحات 📍نمایندگی کرمان موتور📍
+▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪Rafiee Motor▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪
+✔ثبت تمامی اسناد به نام متقاضی 
+✔تحویل ۲۰ روز کاری از نمایندگی رسمی 
+✔دارای گارانتی شرکتی 
+✔فرصت مناسب برای سرمایه گذاری با تعداد محدود 
+✔عقد قرارداد در نمایندگی رسمی
+◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾
+☎جهت اطلاعات بیشتر با ما تماس بگیرید.</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>50,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -6883,7 +7010,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6893,78 +7020,67 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>داخل قهوه ای</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4 سیلندر XU7</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>11 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>1.8 لیتر</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>9.1 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>کوییک، دنده ای R</t>
+          <t>کی ام سی، T9</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>2 لیتر توربو</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>451000000</v>
+        <v>2750000000</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>کرج / شهرک وحدت</t>
+          <t>تهران / پیروزی</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات سالم و بدون خط خش بدون تصادف 
-بشرط کارشناسی 
-سند تک برگ 
-دی لایت رینگ آلومینیوم
-کفی سه بعدی کفی یک تکه کفی صندوق عقب 
-شیشه دودی دزدگیر تصویری 
-پاور شیشه ها</t>
+          <t xml:space="preserve"> توضیحات ⭐⭐ نمایندگی مجاز کرمان موتور کد 1762 رفیعی نیا⭐⭐
+سند ازاد و قابل انتقال
+تحویل فوری
+جهت خرید و بازدید خودروتماس بگیرید</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>45,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -6974,7 +7090,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -6984,7 +7100,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6994,79 +7110,60 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>4 سیلندر M15 یورو4</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>13 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>7 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ام وی ام، 315هاچ بک</t>
+          <t>فونیکس، تیگو 7 پرو</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1394</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ساده</t>
+          <t>پریمیوم</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>449000000</v>
+        <v>2420000000</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>رشت / گاز</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فنی کاملا سالم
-نوک مدادی متالیک
-لاستیک ۹۰درصد
-معاینه فنی
-شیشه دودی امریکایی
-مانیتور اندروید 
-سنسور دنده عقب
-روکش صندلی چرم درجه یک
-کفپوش ۳بعدی
-کولر روشن (یخچال)
-بیمه کامل 
-کیلومتر ۱۸۰۰۰۰
-چراغ ومه شکن هدلایت
-سرویس ها ب موقع 
-مصرفی ها تعویض شده فاکتورش موجود هست
-اتاق کاملا کیپ بدون صدا .بدون خرج اماده مسافرت
-گلگیر جلو سمت شاگرد اندازه کف دست آبرنگ شده ب دلیل زیبایی
-تخفیف پای معامله</t>
+          <t xml:space="preserve"> توضیحات ----- چینی لند -----
+مشاور و کارشناس شما : خانم صادقی
+✔️تحویل به روز با سند و مدارک آماده
+✔️خودرو خشک ،قابل رویت حضوری
+✔️حق کارشناسی قبل از خرید با شما
+✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
+✔️قابل معاوضه </t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>180,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7076,7 +7173,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -7086,7 +7183,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>نوک مدادی</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -7096,14 +7193,10 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>11.8 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربو شارژ</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>1.5 لیتر</t>
@@ -7111,57 +7204,49 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>6.3 لیتر در صد کیلومتر</t>
+          <t>8.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>پژو، 206</t>
+          <t>چانگان، CS 55 پلاس</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1387</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>تیپ 2</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E80" t="n">
-        <v>335000000</v>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>تهران / باغ فردوس</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات بدون تصادف جلووعقب شاسی هاسالم
-فقط گلگیرودرسمت شاگردرنگ دارد
-فنی درجه یک
-کولرسالم
-بیمه ثالث وبدنه دارد
-معاینه فنی ۱۲ ماه
-لاستیکهانو
-باطری گارانتی دارد
-لوازم همه چی دارد
-ازصفردست خودم بوده است
-خداوندبه خریدارخیرعطانماید</t>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>260,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7171,12 +7256,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>دو لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -7186,49 +7271,45 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>داخل خاکستری</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>4 سیلندر TU3</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>14.1 ثانیه</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (JL473ZQ7)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>1.4 لیتر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>6.4 لیتر در صد کیلومتر</t>
+          <t>6.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ولوو، XC90</t>
+          <t>اکستریم، VX</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>اینسکریپشن</t>
+          <t>2.0 لیتر توربو</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7238,17 +7319,17 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فول کامل با هوک عقب برقی ، ماساژور، سقف جیر ، کیت پل استار و ...</t>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>59,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7268,7 +7349,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>قهوه ای</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -7278,44 +7359,40 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ و سوپرشارژ T6</t>
+          <t>4 سیلندر توربوشارژ (4J20)</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>6.9 ثانیه</t>
+          <t>9 ثانیه</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>7.7 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>فیات، 500</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1.2 لیتر</t>
+          <t>پانوراما دنده ای</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7325,10 +7402,14 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr"/>
+          <t>تهران / میرداماد</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
+        </is>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7341,7 +7422,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -7361,44 +7442,44 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>4 سیلندر (FIRE)</t>
+          <t>4 سیلندر TU5</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>12.9 ثانیه</t>
+          <t>11.6 ثانیه</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>1.2 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>4.8 لیتر در صد کیلومتر</t>
+          <t>6.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ب ام و، سری 5 سدان</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>530i</t>
+          <t>پانوراما دنده ای</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7408,12 +7489,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فول کامل پرفکشن شرکتی قدیم ترخیص سند آزاد </t>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -7428,7 +7509,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -7443,49 +7524,49 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>داخل موکا</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ</t>
+          <t>4 سیلندر TU5</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>6.2 ثانیه</t>
+          <t>11.6 ثانیه</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>5.9 لیتر در صد کیلومتر</t>
+          <t>6.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>هوندا، eNS1</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>150 کیلووات</t>
+          <t>پانوراما دنده ای</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7495,12 +7576,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات پلاک شده آماده تحویل</t>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -7510,12 +7591,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>برقی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -7525,7 +7606,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>تیتانیوم</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -7535,36 +7616,44 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>1 موتور الکتریکی</t>
+          <t>4 سیلندر TU5</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>7.5 ثانیه</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+          <t>11.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>6.6 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>تویوتا، کمری هیبرید</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2.5 لیتر LE</t>
+          <t>پانوراما اتوماتیک TU5P</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7574,12 +7663,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ساخت ژاپن با سقف پاناروما و پرده عقب برقی و رینگ بزرگ و ...</t>
+          <t xml:space="preserve"> توضیحات ⚫شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫سند آزاد ⚫هزینه انتقال سند بعهده مجموعه ⚫ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -7589,7 +7678,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7604,12 +7693,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>تیتانیوم</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>داخل کرم</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N85" t="inlineStr"/>
@@ -7620,22 +7709,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ب ام و، سری 7</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>730li</t>
+          <t>پانوراما اتوماتیک TU5P</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -7645,17 +7734,17 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فول کامل کامل  شرکتی فقط اسکن نداره</t>
+          <t xml:space="preserve"> توضیحات ⚫شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫سند آزاد ⚫هزینه انتقال سند بعهده مجموعه ⚫ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>6,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7680,49 +7769,33 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>داخل شتری</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>6.3 ثانیه</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>6.2 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>داخل مشکی</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>پورشه، ماکان</t>
+          <t>دنا، پلاس EF7</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>اتوماتیک توربو آپشنال</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7732,17 +7805,17 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات ۷کلید با دو رادار نقطه کور و بین خطوط ، کیلس و استارتر ، کیت اگزوز ، رینگ زوم مشکی ، سقف جیر ، چراغ PDLS PLUS ، باربند ، رکاب ، آینه دوشاخ ، اگزوز دو لول و ...</t>
+          <t xml:space="preserve"> توضیحات ⚫شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫سند آزاد ⚫هزینه انتقال سند بعهده مجموعه ⚫ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>47,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -7762,54 +7835,54 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>کربن بلک</t>
+          <t>تیتانیوم</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>داخل قرمز</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ</t>
+          <t>4 سیلندر توربوشارژ EF7</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>6.7 ثانیه</t>
+          <t>10.5 ثانیه</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.7 لیتر</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>7.4 لیتر در صد کیلومتر</t>
+          <t>8.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>فولکس، ID.4 Crozz</t>
+          <t>تارا، اتوماتیک V4</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PURE</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -7819,22 +7892,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فول کامل شرکتی درحدصفر</t>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>3,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>برقی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -7849,7 +7922,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>خاکستری</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -7859,36 +7932,44 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>1 موتور الکتریکی</t>
+          <t>4 سیلندر TU5 پلاس</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>9 ثانیه</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
+          <t>13 ثانیه</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>7.3 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>بنز، کلاس CLS</t>
+          <t>تارا، دنده ای V1 پلاس</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CLS500</t>
+          <t>6 سرعته</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -7898,17 +7979,17 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات فول کامل با ماساژور و تنظیم ارتفاع و نایت ویژن و هارمن کاردن و فول رادار و...</t>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>64,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7918,7 +7999,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7938,44 +8019,44 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>8 سیلندر تویین توربوشارژ</t>
+          <t>4 سیلندر TU5 پلاس</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>5.2 ثانیه</t>
+          <t>12.5 ثانیه</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>4.7 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>9 لیتر در صد کیلومتر</t>
+          <t>7.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ب ام و، سری 5 سدان</t>
+          <t>تارا، اتوماتیک V4</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>528i</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7985,17 +8066,17 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / میرداماد</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> توضیحات مانیتور بزرگ و رینگ ۱۹ و پرده عقب برقی و تودوزی چرم و استارتر و مموری صندلی راننده</t>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>180,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8010,44 +8091,44 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>دو لکه رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>آبی</t>
+          <t>تیتانیوم</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>داخل سفید</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (N20B20)</t>
+          <t>4 سیلندر TU5 پلاس</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>6.2 ثانیه</t>
+          <t>13 ثانیه</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>2 لیتر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>6.5 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>نیسان، ترا</t>
+          <t>دنا، پلاس EF7</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -8057,12 +8138,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>اکسکلوسیو</t>
+          <t>اتوماتیک توربو آپشنال</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>13 ساعت پیش</t>
+          <t>دقایقی پیش</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -8072,10 +8153,14 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+          <t>تهران / میرداماد</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -8098,18 +8183,34 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>طوسی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>داخل موکا</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
+          <t>داخل مشکی</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ EF7</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>10.5 ثانیه</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>1.7 لیتر</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>8.1 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -538,22 +538,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>3780000000</v>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات اماده تحویل با پلاک و مدارک کامل تحویل در نمایندگی</t>
-        </is>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -615,30 +609,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2750000000</v>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>تهران / 17 شهریور</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات 📍نمایندگی کرمان موتور📍
-▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪Rafiee Motor▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪
-✔ثبت تمامی اسناد به نام متقاضی 
-✔تحویل ۲۰ روز کاری از نمایندگی رسمی 
-✔دارای گارانتی شرکتی 
-✔فرصت مناسب برای سرمایه گذاری با تعداد محدود 
-✔عقد قرارداد در نمایندگی رسمی
-◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾
-☎جهت اطلاعات بیشتر با ما تماس بگیرید.</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -700,27 +680,16 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>تهران / پونک</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ▪️◾️◼️◼️ نمایندگی مجاز کرمان موتور کد 314رفیعی ◼️◼️◾️▪️
-⚜-امکان بازدید قبل از خرید
-____________________________________
-جهت کسب اطلاعات بیشتر با همکاران ما در تماس باشید.</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -790,28 +759,16 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>تهران / اندرزگو</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅امید گالری
-بیش از ۱۵ سال سابقه در خرید و فروش ماشین
-عضو رسمی اتحادیه
-تحویل فوری با امکان کارشناسی
-✅قیمت آخر را از ما بخواهید</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -877,30 +834,16 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>1800000000</v>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ❌ ثبت نام خودرو لوکانو باز شد❌
-💎 فروش قطعی و بدون قرعه کشی لوکانو L7 به صورت اقساط در نمایندگی ۷۲۴ الماس پارس💎
-🔷اقساط ۳۶ ماهه
-🔷بدون محدودیت ثبت نام
-🔷خارج از سامانه و بدون قرعه کشی
-🔷رنگ به انتخاب مشتری
-🔷تحویل ۱۰ روزه
-*ثبت اطلاعات جهت پیش ثبت نام فقط با ارسال یک‌ مدرک شناسایی امکان پذیر است*
-جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -970,23 +913,16 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>898000000</v>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>تهران / شهرک راه‌آهن</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نقد و اقساط ،به شرط کارشناسی ،به شرط رویت،سند ازاد،معاوضه با خودروی شما
-شجری</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1056,30 +992,16 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1800000000</v>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ❌ ثبت نام خودرو لوکانو باز شد❌
-💎 فروش قطعی و بدون قرعه کشی لوکانو L7 به صورت اقساط در نمایندگی ۷۲۴ الماس پارس💎
-🔷اقساط ۳۶ ماهه
-🔷بدون محدودیت ثبت نام
-🔷خارج از سامانه و بدون قرعه کشی
-🔷رنگ به انتخاب مشتری
-🔷تحویل ۱۰ روزه
-*ثبت اطلاعات جهت پیش ثبت نام فقط با ارسال یک‌ مدرک شناسایی امکان پذیر است*
-جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1149,25 +1071,16 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1050000000</v>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>تهران / پونک</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ▪️◾️◼️◼️ نمایندگی مجاز کرمان موتور کد 1752رفیعی ◼️◼️◾️▪️
-⚜-فروش نقدی * تحویل 20 روزه کاری
-⚜-انتخاب رنگ بدون اختلاف قیمت * 
-⚜-سند آزاد و به نام خریدار</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1237,24 +1150,16 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>لحظاتی پیش</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>20000000000</v>
-      </c>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>تهران / زعفرانیه</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات بدنه و فنی بی نقص به شرط
-اسپرت و اسپرت پلاس و پاور بوست رو فرمون، چراغpdls plus  رنگ سفارشی 
-هرگونه‌ مزاحمت پیگرد قانونی خواهد داشت</t>
-        </is>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>39,000 km</t>
@@ -1327,20 +1232,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>1640000000</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>تهران / شهرک راه‌آهن</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نقد و اقساط ،به شرط کارشناسی ،به شرط رویت،سند ازاد،معاوضه با خودروی شما
-شجری</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1413,21 +1311,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>1799000000</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>تهران / شهرک غرب</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی کرمان موتور خدامددی کد: ۱۷۴۸  
-✅️تحویل فوری
-✅مدارک آماده انتقال </t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1492,24 +1382,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>1949000000</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>تهران / شهرک غرب</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی کرمان موتور خدامددی 
-کد :1748
-✅️تحویل فوری 
-✅️بدون هزینه اضافی
-✅تک رنگترین محصول کرمان موتور
-✅مدارک آماده انتقال </t>
-        </is>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1574,11 +1453,7 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>تهران / توحید</t>
@@ -1657,24 +1532,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>1399000000</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>تهران / شهرک غرب</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی خدامددی کد:۱۷۴۸
-✅تحویل فوری ( قبل از ساعت ۱۴ وکالت نامه به اسم مشتری محترم همان لحظه صادر می‌شود)
-صدور پلاک و بیمه تیرماه ۱۴۰۴
-✅بدون هیچ هزینه اضافی مستقیم از نمایندگی 
-⚠️لطفا توجه کنید :
-این خودرو مدل ۱۴۰۴ ندارد و فقط مدارک درسال ۱۴۰۴ صادر شده ⚠️</t>
-        </is>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1747,26 +1611,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>1050000000</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>تهران / صدر</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 314رفیعی🚩
-⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
-⏮️ سند دسته اول به نام شما خریدار محترم 
-مزایا :
-✅صرفه جویی در زمان و هزینه
-✅بدون واسطه ،مستقیم از فروشنده
-✅خرید مطمئن و بدون دردسر
-☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1839,29 +1690,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>تهران / آجودانیه</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅️نمایندگی رسمی ماموت خودرو
-✅️پرفروش ترین خودرو برقی
-✅️قیمت باورنکردنی
-✅️مانیتور بزرگ
-✅️نقد و اقساط
-✅️شرایط فروش عالی
-✅️خرید راحت و آسوده
-👨‍💼کارشناس فروش 
-مصطفی مشهدی</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1926,24 +1761,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>1010000000</v>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>تهران / پونک</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی مجاز کرمان موتور کد 1752 رفیعی 
- ثبت نام نقد و اقساط 
- اقساط 12 الی 24 ماهه
- تحویل 90 روزکاری 
-------------------------------------------
-جهت کسب اطلاعات بیشتر با همکاران ما در ارتباط باشید .</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2000,29 +1824,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>تهران / آجودانیه</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅️پلاک آماده تحویل
-✅️نقد واقساط
-✅️خدمات VIP
-✅️به همراه کارشناسی
-✅️خرید امن و راحت
-✅️طرح تعویض خودرو های کارکرده
-✅️نمایندگی رسمی ماموت خودرو
-✅️کارشناس فروش 
-✅️مصطفی مشهدی</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2095,19 +1903,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>485000000</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>تهران / شهرآرا</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات با ترمز ESC در حد صفر</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>1,700 km</t>
@@ -2176,28 +1978,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>2500000000</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>تهران / صدر</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات توضیحات
-_نمایندگی مجاز هیوندای کد 314 قیطریه 
-✔️نقدواقساط
-✔️ بدون ضامن
-✔️سندبنام خریدار
-✔️تحویل ۶۰ روز‌کاری
-✔️موعد چک هر۳ ماه
-_________________________
-ثبت نام اقساطی
-اقساط به صورت سه ماه یه بار و تاریخ اولین چک 15ابان</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2270,20 +2057,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>1995000000</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>تهران / شهرک راه‌آهن</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نقد و اقساط ،به شرط کارشناسی ،به شرط رویت،سند ازاد،معاوضه با خودروی شما
-شجری</t>
-        </is>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2356,20 +2136,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>2110000000</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
           <t>تهران / صدر</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 314 رفیعی🚩
-☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2426,22 +2199,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>2500000000</v>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
           <t>تهران / پونک</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✔نمایندگی مجاز کرمان موتور کد 1752 رفیعی ✔
-♦ثبت نام نقدی و اقساط 
-♦اقساط به صورت هر سه ماه یک بار و تاریخ اولین چک1404 /08 /15
-☎جهت کسب اطلاعات بیشتر تماس بگیرید.</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2514,26 +2278,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>2750000000</v>
-      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
           <t>تهران / پونک</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ^^^^^^^^نمایندگی مجاز کرمان موتور کد 1752 رفیعی^^^^^^^^
-⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
-⏮️ سند دسته اول به نام شما خریدار محترم 
-مزایا :
-✅صرفه جویی در زمان و هزینه
-✅بدون واسطه ،مستقیم از فروشنده
-✅خرید مطمئن و بدون دردسر
-☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2598,21 +2349,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>3695000000</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
           <t>تهران / شهرک راه‌آهن</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات تحویل فوری
-به شرط کارشناسی
-بختیاری</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2685,23 +2428,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>1050000000</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
           <t>تهران / صدر</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات توضیحات
-⭐ نمایندگی مجاز کرمان موتور کد 314 رفیعی نیا⭐
-⭐ فروش نقدی
-✔️تحویل فوری
-✔️خرید عالی و مطمئن</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2774,25 +2507,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>1220000000</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-☜ مشاور و کارشناس شما : خانم جاوید
-◽️ ️تحویل به روز با سند و مدارک آماده .
-◽️️ خودرو  خشک ،قابل رویت حضوری .
-◽️️ حق کارشناسی قبل از خرید با شما .
-◽ ️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد .
-️✔ قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2849,25 +2570,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
           <t>تهران / اندرزگو</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅امید گالری
-بیش از ۱۵ سال سابقه در خرید و فروش ماشین
-عضو رسمی اتحادیه
-تحویل فوری با امکان کارشناسی
-✅قیمت آخر را از ما بخواهید</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2940,28 +2649,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
           <t>تهران / نیاوران</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⭐️✅کارشناس خودرو خانم سعادت✅
-⭐️✅فروش تخصصی خودروهای مونتاژ و وارداتی اقساط✅
-✅اقساط فقط با چک صیاد.تهران و شهرستان
-✅فروش خودرو مونتاژ و وارداتی به صورت نقدو اقساط✅
-️✅خودروها پلاک شده سند آزاد✅
-⏳ساعت مراجعه: 8:30 الی 17✅
-✨تحویل فوری✅
-✅**خانم سعادت**✅</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3030,25 +2724,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>1810000000</v>
-      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما :آقای نعیم
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3121,26 +2803,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>1890000000</v>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
           <t>تهران / صدر</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 314 رفیعی🚩
-⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
-⏮️ سند دسته اول به نام شما خریدار محترم 
-مزایا :
-✅صرفه جویی در زمان و هزینه
-✅بدون واسطه ،مستقیم از فروشنده
-✅خرید مطمئن و بدون دردسر
-☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3205,26 +2874,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>1840000000</v>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
           <t>تهران / پونک</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ^^^^^^^^نمایندگی مجاز کرمان موتور کد 1752 رفیعی^^^^^^^^
-⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
-⏮️ سند دسته اول به نام شما خریدار محترم 
-مزایا :
-✅صرفه جویی در زمان و هزینه
-✅بدون واسطه ،مستقیم از فروشنده
-✅خرید مطمئن و بدون دردسر
-☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3289,23 +2945,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>3100000000</v>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
           <t>کرج / عظیمیه</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات  بدون آبرنگ و لیسه
-گارانتی فعال
-سرویس های دوره ای به موقع انجام‌ شده و سرویس های میان دوره ای هم در نمایندگی انجام شده
-فول ترین نسخه تیگو ۸ پرومکس ie
-فنی کاملا سالم و تمامی آپشن ها فعال میباشند</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>25,500 km</t>
@@ -3378,21 +3024,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 7 سال✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3465,25 +3103,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>1930000000</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما :آقای نعیم
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3548,21 +3174,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 7 سال✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3635,21 +3253,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 7 سال ✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3722,25 +3332,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>تهران / صدر</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات توضیحات
-⭐ نمایندگی مجاز کرمان موتور کد 314 رفیعی نیا⭐
-⭐ فروش نقدی
-✔️تحویل فوری
-✔️خرید عالی و مطمئن</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3805,21 +3403,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3892,25 +3482,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>2590000000</v>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-☜ مشاور و کارشناس شما : خانم جاوید
-◽️ ️تحویل به روز با سند و مدارک آماده .
-◽️️ خودرو خشک ،قابل رویت حضوری .
-◽️️ حق کارشناسی قبل از خرید با شما .
-◽ ️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد .
-️✔ قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3983,21 +3561,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4066,21 +3636,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 7 سال ✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود.</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4153,21 +3715,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4236,21 +3790,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4323,21 +3869,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4410,21 +3948,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
           <t xml:space="preserve">ری / شهرری </t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات نمایندگی افتخار کد 368 با کمال احترام و افتخار در خدمت شماست ✔شرایط به صورت نقد و اقساط با کمترین سود ✔استفاده از پوشش ویژه حمایتی تعمیرگاهی vip پس از خرید ✔گارانتی خودرو 5 سال با 2 سال سرویس رایگان✔تحویل در کوتاه ترین زمان ✔جهت حفظ سلامتی هموطنان عزیز،ثبت نام به صورت غیر حضوری نیز انجام میشود</t>
-        </is>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4489,25 +4019,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
           <t>تهران / اندرزگو</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅امید گالری
-بیش از ۱۵ سال سابقه در خرید و فروش ماشین
-عضو رسمی اتحادیه
-تحویل فوری با امکان کارشناسی
-✅قیمت آخر را از ما بخواهید</t>
-        </is>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4572,25 +4090,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>2750000000</v>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
           <t>تهران / صدر</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 314 رفیعی 🚩
-✔تحویل : فقط 20 روز کاری 
-✔سند: تک برگ ، مستقیم به نام خریدار 
-✔حواله شرکتی معتبر 
-📈مزایا :
-✅صرفه جویی در زمان و هزینه 
-☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4655,25 +4161,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>1840000000</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم شریفی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4746,23 +4240,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>1050000000</v>
-      </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
           <t>تهران / رسالت</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⭕ نمایندگی رسمی کرمان موتور مرادی کد 1751 ⭕
-✅ تحویل 20 روز کاری 
-✅حواله معتبر شرکتی سند از کمپانی بنام خریدار
-✅ فرصت استثنائی با تعداد محدود
-@@جهت کسب اطلاعات بیشتر با ما در ارتباط باشید.</t>
-        </is>
-      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4835,25 +4319,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>3400000000</v>
-      </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما :آقای نعیم
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه</t>
-        </is>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4926,25 +4398,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>7300000000</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
           <t>تهران / آجودانیه</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅️نمایندگی رسمی ماموت خودرو
-✅️نقد و اقساط
-✅️خدمات vip
-✅️قوی ترین مدل برقی فولکس واگن
-✅️طرح تعویض خودرو های کارکرده
-✅️کارشناس فروش
-✅️مصطفی مشهدی</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5001,25 +4461,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
           <t>تهران / اندرزگو</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅امید گالری
-بیش از ۱۵ سال سابقه در خرید و فروش ماشین
-عضو رسمی اتحادیه
-تحویل فوری با امکان کارشناسی
-✅قیمت آخر را از ما بخواهید</t>
-        </is>
-      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5088,22 +4536,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>2750000000</v>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
           <t>تهران / قیطریه</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ماشین تازه تحویل گرفته شده
-موجود در نمایشگاه 
-امکان بازدید و کارشناسی قبل از هرگونه واریزی
-جهت خرید فقط تماس بگیرین</t>
-        </is>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5176,28 +4615,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
           <t>تهران / آجودانیه</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅️نمایندگی خسروانی
-✅️نقد و اقساط
-✅️همراه با کارشناسی
-✅️خرید امن و مطمئن
-✅️بدون کوچک ترین هزینه اضافی
-✅️طرح تعویض خودرو های کارکرده
-✅️کارشناس فروش
-✅️مصطفی مشهدی</t>
-        </is>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5266,22 +4690,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>1050000000</v>
-      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
           <t>تهران / پونک</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات 🚩نمایندگی مجاز کرمان موتور کد 1752 رفیعی 🚩
-✔تحویل فوری و نقدی
-✔موجود در نمایندگی * 
-☎جهت کسب اطلاعات بیشتر با ما در تماس باشید.</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5354,25 +4769,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>1870000000</v>
-      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-☜ مشاور و کارشناس شما : خانم جاوید
-◽️ ️تحویل به روز با سند و مدارک آماده .
-◽️️ خودروخشک ،قابل رویت حضوری .
-◽️️ حق کارشناسی قبل از خرید با شما .
-◽ ️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد .
-️✔ قابل معاوضه</t>
-        </is>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5437,29 +4840,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>1050000000</v>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
           <t>تهران / آجودانیه</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅️نمایندگی برتر کرمان موتور در کشور
-(خسروانی)
-✅️طرح تعویض خودرو های کارکرده
-✅️فروش به صورت نقد و اقساط
-✅️اقساط ۱۲ الی ۶۰ ماه
-✅️تحویل ۲۰ روزه
-✅️سند ۶ دانگ به نام
-✅️خرید به صورت حضوری و غیره حضوری
-✅️ثبت نام به همراه عقد قرارداد
-👨‍💼کارشناس فروش
-مصطفی مشهدی</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5532,25 +4919,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>2100000000</v>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم شریفی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5623,26 +4998,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>1840000000</v>
-      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
           <t>تهران / آجودانیه</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅️شرایط فروش عالی
-✅️نقد و اقساط
-✅️نمایندگی رسمی 
-✅️خسروانی
-✅️ثبت نام تحویل ۲۰ روزه
-✅️برای شرایط عالی اقساط لطفا تماس بگیرید
-👨‍💼کارشناس فروش
-مصطفی مشهدی</t>
-        </is>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5707,25 +5069,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>2990000000</v>
-      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم شریفی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه</t>
-        </is>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5790,26 +5140,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>1890000000</v>
-      </c>
+      <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
           <t>تهران / پونک</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ^^^^^^^^نمایندگی مجاز کرمان موتور کد 1752 رفیعی^^^^^^^^
-⏮️ تحویل 20روز کاری و تحویل درب کارخانه 
-⏮️ سند دسته اول به نام شما خریدار محترم 
-مزایا :
-✅صرفه جویی در زمان و هزینه
-✅بدون واسطه ،مستقیم از فروشنده
-✅خرید مطمئن و بدون دردسر
-☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید</t>
-        </is>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5874,25 +5211,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>2920000000</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم الماسی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5961,25 +5286,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>1770000000</v>
-      </c>
+      <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم شریفی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6052,25 +5365,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+      <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
           <t>تهران / اندرزگو</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ✅امید گالری
-بیش از ۱۵ سال سابقه در خرید و فروش ماشین
-عضو رسمی اتحادیه
-تحویل فوری با امکان کارشناسی
-✅قیمت آخر را از ما بخواهید</t>
-        </is>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6143,9 +5444,7 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>2400000000</v>
-      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
           <t>اصفهان / آذر</t>
@@ -6224,22 +5523,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>1050000000</v>
-      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
           <t>تهران / پیروزی</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⭐⭐ نمایندگی مجاز کرمان موتور کد 1762 رفیعی نیا⭐⭐
-سند ازاد و قابل انتقال
-تحویل فوری
-جهت خرید و بازدید خودروتماس بگیرید</t>
-        </is>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6312,25 +5602,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>1930000000</v>
-      </c>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم الماسی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6395,25 +5673,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>2270000000</v>
-      </c>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم شریفی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6486,25 +5752,13 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>1940000000</v>
-      </c>
+      <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم الماسی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه</t>
-        </is>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6566,23 +5820,16 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>1140000000</v>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
           <t>تهران / باغ فیض</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات بیمه ثالث تا ۱۴۰۴.۱۱.۱۷
- خشک</t>
-        </is>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6636,29 +5883,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>1010000000</v>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
           <t>تهران / 17 شهریور</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚜نمایندگی مجاز کرمان موتور ⚜
-▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪ Rafiee Motor ▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪
-⬛◻◾ آغاز ثبت نام اقساطی با پیش پرداخت به مبلغ درج شده ◾◻⬛
-✔انتخاب رنگ به انتخاب متقاضی : سفید، مشکی، آبی، قرمز
-✔دارای بیمه بدنه تا پایان اقساط 
-✔اقساط 12 ماه و 24 ماه 
-❌ظرفیت و مهلت محدود ❌
-☎برای اطلاعات بیشتر با کارشناسان ما در ارتباط باشید ☎</t>
-        </is>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6712,28 +5946,16 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>440000000</v>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
           <t>اهواز / فرهنگ شهر</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات با سلام.
-ماشین کاملا خونگی و کم کارکرد
-موتور، گیربکس و کولر کاملاً سالم - داخل کابین و رخ ماشین عالی
-سند تک برگ
-قیمت بر مبنای دور رنگ کامل اعلام کردم ولی حدود 50 درصد رنگ دارد
-فروش فقط به مصرف کننده و به شرط تعویض پلاک فوری
-بازدید از ساعت 7 تا 17 با هماهنگی</t>
-        </is>
-      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
           <t>97,000 km</t>
@@ -6803,22 +6025,16 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>1890000000</v>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
           <t>تهران / حسن‌آباد</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات مدارک کامل و آماده انتقال</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6880,31 +6096,16 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>1100000000</v>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
           <t>تهران / 17 شهریور</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات 🔴نمایندگی مجاز کرمان موتور رفیعی نیا🔴
-شرایط فروش نقد و اقساط:
-✅اقساط : 12 الی 18 ماهه
-✅بدون ضامن _ فقط با چک صیادی
-✅سند به نام خریدار | تحویل 60 روزه کاری
-مزایا :
-✅صرفه جویی در زمان و هزینه
-✅بدون واسطه ،مستقیم از کارخانه
-✅خرید مطمئن و بدون دردسر
-☎جهت کسب اطلاعات بیشتر باهمکاران ما در ارتباط باشید.</t>
-        </is>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6974,30 +6175,16 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>2750000000</v>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
           <t>تهران / 17 شهریور</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات 📍نمایندگی کرمان موتور📍
-▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪Rafiee Motor▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪▪
-✔ثبت تمامی اسناد به نام متقاضی 
-✔تحویل ۲۰ روز کاری از نمایندگی رسمی 
-✔دارای گارانتی شرکتی 
-✔فرصت مناسب برای سرمایه گذاری با تعداد محدود 
-✔عقد قرارداد در نمایندگی رسمی
-◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾◻◾
-☎جهت اطلاعات بیشتر با ما تماس بگیرید.</t>
-        </is>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7059,25 +6246,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>2750000000</v>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
           <t>تهران / پیروزی</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⭐⭐ نمایندگی مجاز کرمان موتور کد 1762 رفیعی نیا⭐⭐
-سند ازاد و قابل انتقال
-تحویل فوری
-جهت خرید و بازدید خودروتماس بگیرید</t>
-        </is>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7139,28 +6317,16 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E79" t="n">
-        <v>2420000000</v>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ----- چینی لند -----
-مشاور و کارشناس شما : خانم صادقی
-✔️تحویل به روز با سند و مدارک آماده
-✔️خودرو خشک ،قابل رویت حضوری
-✔️حق کارشناسی قبل از خرید با شما
-✔️ تمامی خودروها دارای گارانتی فعال و بیمه نامه میباشد.
-✔️قابل معاوضه </t>
-        </is>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7226,24 +6392,16 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7309,24 +6467,16 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7392,24 +6542,16 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7479,24 +6621,16 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7566,24 +6700,16 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7653,24 +6779,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫سند آزاد ⚫هزینه انتقال سند بعهده مجموعه ⚫ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7724,24 +6842,16 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫سند آزاد ⚫هزینه انتقال سند بعهده مجموعه ⚫ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7795,24 +6905,16 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫سند آزاد ⚫هزینه انتقال سند بعهده مجموعه ⚫ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7882,24 +6984,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -7969,24 +7063,16 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -8056,24 +7142,16 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -8143,24 +7221,16 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>توافقی</t>
-        </is>
-      </c>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> توضیحات ⚫️شماره ثبت (۶۲۹۶۱۰) و دارای شناسه ملی ❌❌ (بدون کمیسیون و کارمزد)❌❌ ⚫️پرداخت وجه درب منزل پس از تایید کارشناس مد نظر شما ⚫️یک سال بیمه شخص ثالث،گارانتی کامل شرکتی و فعال ⚫️سند آزاد ⚫️هزینه انتقال سند بعهده مجموعه ⚫️ساعت کاری | ۸~٢٠|</t>
-        </is>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -501,17 +501,17 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>حجم موتور</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>پیشرانه</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>شتاب</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>حجم موتور</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -523,17 +523,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>فولکس، ID.4 Crozz</t>
+          <t>کیا، موهاوی</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PURE</t>
+          <t>8 سیلندر</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -541,21 +541,32 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4000000000</v>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>تهران / شهرک غرب</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ماشین ۸ سیلندر فول تنظیم ارتفاع تنظیم پدال گرم کن صندلی
+کارکرد واقعی 
+داخل و بیرون ماشین بسیار تمیز و بدون رنگ
+سرویس ها به موقع و کامل انجام شده
+لاستیک ها نو
+بیمه تا آخر سال</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>160,000 km</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>برقی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -570,7 +581,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -580,31 +591,39 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1 موتور الکتریکی</t>
+          <t>4.6 لیتر</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>9 ثانیه</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+          <t>8 سیلندر</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>7 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>12.8 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>کی ام سی، T9</t>
+          <t>ب ام و، سری 4 گرن کوپه</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2 لیتر توربو</t>
+          <t>428i</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -612,16 +631,25 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>7250000000</v>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>تهران / 17 شهریور</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>قم / بلوار امین</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات سلام
+۳‌کلید با‌تابلو‌خوان
+سیستم هارمن
+کیت رموس</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>58,000 km</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -641,41 +669,49 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل قرمز</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>2 لیتر</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr"/>
+          <t>5.9 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>5.8 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>بی ای سی، X3 PRO</t>
+          <t>بنز، کلاس CLA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>CLA45</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -683,16 +719,29 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>تهران / پونک</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>تهران / قیطریه</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات تمام تغییرات توسط خود کارخانه بنز آلمان انجام شده و کوچکترین تغییری توسط شرکت های متفرقه انجام نشده،
+از پمپ باد اورجینال تا دستگیره های کاپوت همه مطابق ادیشن ماشین زرد هست
+تنها نمونه موجود در کشور که واردات زیر نظر خودم‌ انجام شده و از اول دست خودم بوده
+بیرنگ، بدنه کاملا بی خط و خش
+ریس، دمپر، صندلی های اسپرت، اپل کار پلی، صندلی ها هر دو طرف مموری، گرمکن، فول کامل
+خودرو هر ۶۰۰۰ کیلومترسرویس شده و قابل استعلام میباشد</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>68,000 km</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -722,22 +771,22 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4 سیلندر (4G15)</t>
+          <t>2 لیتر</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>12.6 ثانیه</t>
+          <t>4 سیلندر توربوشارژ</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>4.6 ثانیه</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>6.1 لیتر در صد کیلومتر</t>
+          <t>7.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
@@ -762,13 +811,21 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>تهران / اندرزگو</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>تهران / جمهوری</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات خودرو تحویل شده </t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -801,17 +858,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>4 سیلندر توربوشارژ (4A95TD)</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>9.5 ثانیه</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -819,17 +876,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>لوکانو، L7</t>
+          <t>ولوو، XC90</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.6 لیتر توربو</t>
+          <t>اینسکریپشن</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -837,16 +894,26 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>تهران / شهرک غرب</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ((سند دست اول)) بسیار سالم و خانگی بمدت ۴سال استفاده نشده است.
+فول کامل Inscription (اینسکریپشن) رادارها کامل سیستم صوتی باورز و تنظیم ارتفاع شیشه رفلکس 2 جداره و هداپ دیسپلی انجین استارت گرم کن سردکن اتو پارک دوربین 360درجه رکاب و باربند اورجینال خودرو میباشد. بدون هیچگونه زدگی و خوردگی. ایده ال برای مصرف شخصی. قابل معاوضه. 
+بازدید =خرید. به تضمین کارشناس خریدار محترم.</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>46,000 km</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -871,44 +938,44 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل شتری</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
+          <t>2 لیتر</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>8 ثانیه</t>
+          <t>4 سیلندر توربوشارژ و سوپرشارژ T6</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>6.9 ثانیه</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>7.4 لیتر در صد کیلومتر</t>
+          <t>7.7 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>سمند، سورن</t>
+          <t>هوندا، CR-V</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>پلاس EF7 دوگانه سوز</t>
+          <t>EXL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -916,26 +983,35 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>تهران / شهرک راه‌آهن</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>شیراز / شهرک گلستان</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات سند تک برگ می باشید
+از صفر دست خودمون بوده</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>220,000 km</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>دوگانه سوز</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -945,39 +1021,39 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل کرم</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>4 سیلندر EF7 دوگانه سوز</t>
+          <t>2.4 لیتر</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>12.8 ثانیه</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.7 لیتر</t>
+          <t>8.5 ثانیه</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>7.5 لیتر در صد کیلومتر</t>
+          <t>8.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>لوکانو، L7</t>
+          <t>تیگارد، X35</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -987,7 +1063,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.6 لیتر توربو</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -995,13 +1071,31 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>1600000000</v>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>اصفهان / بزرگراه خلیج فارس ( مرق)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1024,7 +1118,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1034,17 +1128,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>8 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (A151R1 )</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>9.8 ثانیه</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1056,7 +1150,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>کی ام سی، ایگل</t>
+          <t>تیگارد، X35</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1066,86 +1160,104 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>اتوماتیک</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>دقایقی پیش</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1600000000</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>صفر کیلومتر</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>اتوماتیک</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>بدون رنگ</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>تیتانیوم</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>داخل مشکی</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>1.5 لیتر</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>تهران / پونک</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>اتوماتیک</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>بدون رنگ</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>سفید</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>4 سیلندر</t>
-        </is>
-      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12.5 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (A151R1 )</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>9.8 ثانیه</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
+          <t>7.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>پورشه، باکستر</t>
+          <t>رانا، پلاس</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>718S</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1153,16 +1265,34 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>755000000</v>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>تهران / زعفرانیه</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>39,000 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1172,7 +1302,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1182,39 +1312,39 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>نقرآبی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>داخل قرمز</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4 سیلندر تخت توربوشارژ</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.4 ثانیه</t>
+          <t>4 سیلندر TU5 یورو5</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2.5 لیتر</t>
+          <t>12 ثانیه</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>7.3 لیتر در صد کیلومتر</t>
+          <t>6.9 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>چری، آریزو 5T اسپرت FL</t>
+          <t>فونیکس، تیگو 8 پرو هیبرید</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1224,7 +1354,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>e پلاس</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1232,13 +1362,31 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>3820000000</v>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>تهران / شهرک راه‌آهن</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1246,7 +1394,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1271,39 +1419,39 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>10.1 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (4T15C) با 2 موتور الکتریکی</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>7.6 ثانیه</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>6.9 لیتر در صد کیلومتر</t>
+          <t>6.5 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>جک، S5</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1.5 لیتر اتوماتیک</t>
+          <t>اتوماتیک TU5P</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1311,13 +1459,31 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1040000000</v>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>تهران / شهرک غرب</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1340,7 +1506,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1350,31 +1516,39 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr"/>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU5P</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr"/>
+          <t>12.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>7.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>کی ام سی، X5</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>TU3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1382,13 +1556,31 @@
           <t>دقایقی پیش</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>750000000</v>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>تهران / شهرک غرب</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1401,7 +1593,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1411,26 +1603,34 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>قهوه ای</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>داخل قهوه ای</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4GC16D)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr"/>
+          <t>1.4 لیتر</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU3</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr"/>
+          <t>11.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>6.3 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1445,21 +1645,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>پانوراما دنده ای</t>
+          <t>پانوراما اتوماتیک TU5P</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1140000000</v>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>تهران / توحید</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1472,7 +1690,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1490,55 +1708,57 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>4 سیلندر TU5</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>11.6 ثانیه</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>جک، S3</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای TU5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>820000000</v>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>تهران / شهرک غرب</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1551,7 +1771,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1571,29 +1791,29 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>10.8 ثانیه</t>
+          <t>4 سیلندر TU5</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>11.6 ثانیه</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>7.6 لیتر در صد کیلومتر</t>
+          <t>6.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>کی ام سی، ایگل</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1603,21 +1823,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>دنده ای TU5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>820000000</v>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>تهران / صدر</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1630,7 +1868,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1640,63 +1878,81 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>خاکستری</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>داخل خاکستری</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>12.5 ثانیه</t>
+          <t>4 سیلندر TU5</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>11.6 ثانیه</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
+          <t>6.6 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>فولکس، ID.4 Crozz</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PURE</t>
+          <t>پانوراما دنده ای</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>910000000</v>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>تهران / آجودانیه</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1704,12 +1960,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>برقی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1719,7 +1975,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>سرمه ای</t>
+          <t>تیتانیوم</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1729,21 +1985,29 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1 موتور الکتریکی</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>9 ثانیه</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+          <t>4 سیلندر TU5</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>11.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>6.6 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>کی ام سی، T8</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1753,36 +2017,54 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>پانوراما دنده ای</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>910000000</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>صفر کیلومتر</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>دنده ای</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>تهران / پونک</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>دنده ای</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>بدون رنگ</t>
@@ -1790,7 +2072,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>قرمز</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1798,39 +2080,73 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU5</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>11.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>6.6 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>فولکس، تی راک</t>
+          <t>تارا، اتوماتیک V4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1140000000</v>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>تهران / آجودانیه</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -1853,7 +2169,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1863,56 +2179,63 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (EA211)</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>9.4 ثانیه</t>
+          <t>4 سیلندر TU5 پلاس</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>13 ثانیه</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>6.1 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>کوییک، GX</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>L دنده ای</t>
+          <t>پانوراما اتوماتیک TU5P</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1215000000</v>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>تهران / شهرآرا</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>تهران / کوهک</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات  ارتقا یافته اردیبهشت
+دارای کارت طلائی یک ستاره. داخل پارکینگ مسقف. مدارک کامل</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1,700 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1922,7 +2245,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1937,54 +2260,60 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>4 سیلندر M15i بهبودیافته</t>
-        </is>
-      </c>
+          <t>داخل خاکستری</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>6.7 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>هیوندای، کونا</t>
+          <t>تارا، اتوماتیک V4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1140000000</v>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>تهران / صدر</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2007,7 +2336,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>تیتانیوم</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2017,17 +2346,17 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>4 سیلندر MPi</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>10.8 ثانیه</t>
+          <t>4 سیلندر TU5 پلاس</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>13 ثانیه</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2039,7 +2368,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>دیگنیتی، پرایم</t>
+          <t>تارا، دنده ای V1 پلاس</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2049,21 +2378,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>6 سرعته</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>920000000</v>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>تهران / شهرک راه‌آهن</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2076,7 +2423,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2086,7 +2433,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2096,56 +2443,64 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (SFG15T)</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>13 ثانیه</t>
+          <t>4 سیلندر TU5 پلاس</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>12.5 ثانیه</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7.3 لیتر در صد کیلومتر</t>
+          <t>7.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>کی ام سی، T8</t>
+          <t>هیوندای، توسان</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>2.4 لیتر</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>تهران / صدر</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>تهران / شهرک غرب</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ماشین فوق العاده تمیز ،فنی سالم بی خط و خش،تمام سرویس ها انجام شده مناسب مصرف کننده به شرط کارشناسی فنی و رنگ تماس فقط ساعت 8 تا 4 بعدظهر</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>210,000 km</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2155,7 +2510,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2165,47 +2520,81 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
+          <t>داخل دلفینی</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2.4 لیتر</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>10.4 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>9.6 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>هیوندای، کونا</t>
+          <t>تارا، دنده ای V1 پلاس</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>6 سرعته</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>920000000</v>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>تهران / پونک</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2218,7 +2607,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2228,7 +2617,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2238,56 +2627,58 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>4 سیلندر MPi</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>10.8 ثانیه</t>
+          <t>4 سیلندر TU5 پلاس</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>12.5 ثانیه</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>7.3 لیتر در صد کیلومتر</t>
+          <t>7.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>کی ام سی، T9</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2 لیتر توربو</t>
+          <t>پانوراما دنده ای</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>740000000</v>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>تهران / پونک</t>
+          <t>بندرعباس</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>66,000 km</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2297,7 +2688,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2307,7 +2698,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2317,48 +2708,58 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU5</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
+          <t>11.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>6.6 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 8 پرو مکس</t>
+          <t>پراید، صندوق دار</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100000000</v>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>تهران / شهرک راه‌آهن</t>
+          <t>سنندج</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>950,000 km</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2368,12 +2769,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>دور رنگ</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2383,58 +2784,52 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>داخل موکا</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (4J20)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>8.1 ثانیه</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>7.9 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>داخل نوک مدادی</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>جک، جی 4</t>
+          <t>شاهین، G دنده ای</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>تهران / صدر</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>تهران / پیروزی</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات مدل اسفند ۱۴۰۱
+گارانتی فعال
+قیمت توافقی</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2447,7 +2842,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2467,68 +2862,86 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>11 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (M15T)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>13.2 ثانیه</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>6.2 لیتر در صد کیلومتر</t>
+          <t>7.2 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ام وی ام، X33 کراس</t>
+          <t>سمند، سورن</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>پلاس EF7 دوگانه سوز</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>840000000</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>صفر کیلومتر</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>دوگانه سوز</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>دنده ای</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>دنده ای</t>
-        </is>
-      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>بدون رنگ</t>
@@ -2536,7 +2949,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2544,15 +2957,31 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>1.7 لیتر</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>4 سیلندر EF7 دوگانه سوز</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>12.8 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>7.5 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ریسپکت، پرایم</t>
+          <t>سمند، سورن</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2562,21 +2991,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>تیپ 2</t>
+          <t>پلاس EF7 بنزینی</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>915000000</v>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>تهران / اندرزگو</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2589,7 +3036,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2609,53 +3056,71 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4T15C)</t>
+          <t>1.7 لیتر</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>10.5 ثانیه</t>
+          <t>4 سیلندر EF7</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>12 ثانیه</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>7.5 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>چانگان، CS 55 پلاس</t>
+          <t>سمند، سورن</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>پلاس XU7P بنزینی</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>697000000</v>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>تهران / نیاوران</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2668,7 +3133,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2678,7 +3143,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2688,52 +3153,66 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (JL473ZQ7)</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>1.8 لیتر</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>4 سیلندر XU7P</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>13 ثانیه</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
+          <t>7 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ریسپکت، پرایم</t>
+          <t>زوتی، آریو</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>تیپ 2</t>
+          <t>1.6 لیتر اتوماتیک</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>670000000</v>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>بانه</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات درجه ۱ بابت هر ایراد دو برابر کم میکنم
+لاستیک نو
+بیمه ۶ ماه
+مانیتور دوربین
+نقد یا معاوضعه با کاپرا</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>168,000 km</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2753,66 +3232,73 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل خاکستری</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4T15C)</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>10.5 ثانیه</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>11.5 ثانیه</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>7.5 لیتر در صد کیلومتر</t>
+          <t>7.2 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>کی ام سی، X5</t>
+          <t>ب ام و، X3</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4800000000</v>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>تهران / صدر</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
+          <t>تهران / کامرانیه</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ایکس لاین(مموری صندلی،مانیتور بزرگ فابریک،کیلس،پرده عقب،کیلومتر جدید)را دارد
+کیلومتر به شرط بدون مشابه در مدل خودش</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>68,500 km</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2832,31 +3318,23 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>بژ</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (4GC16D)</t>
-        </is>
-      </c>
+          <t>داخل قرمز</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>سمند، سورن</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2866,21 +3344,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>پلاس XU7P بنزینی</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>697000000</v>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>تهران / پونک</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -2893,7 +3389,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2913,48 +3409,64 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+          <t>1.8 لیتر</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>4 سیلندر XU7P</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr"/>
+          <t>13 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>7 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 8 پرو مکس</t>
+          <t>ب ام و، سری 5 سدان</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>530i</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>کرج / عظیمیه</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فولترین آپشن -پرفکشن پلاس وارداتی با سقف جیر فابریک و گرمکن فرمان و بال عقب فابریک و ...   بدون کوچیکترین نقطه</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>25,500 km</t>
+          <t>صفر کیلومتر</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2974,7 +3486,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>خاکستری</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2984,50 +3496,54 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J20)</t>
+          <t>2 لیتر</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>8.1 ثانیه</t>
+          <t>4 سیلندر توربوشارژ</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
+          <t>6.2 ثانیه</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>7.9 لیتر در صد کیلومتر</t>
+          <t>5.9 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 8 پرو هیبرید</t>
+          <t>بنز، کلاس A سدان</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>e پلاس</t>
+          <t>A180L</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -3038,7 +3554,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3053,78 +3569,86 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل قرمز</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4T15C) با 2 موتور الکتریکی</t>
+          <t>1.3 لیتر</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>7.6 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (M282)</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>10.1 ثانیه</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>6.5 لیتر در صد کیلومتر</t>
+          <t>6.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>بنز، کلاس CLS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>CLS500</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول کامل با ماساژور و تنظیم ارتفاع و نایت ویژن و هارمن کاردن و فول رادار و...</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>64,000 km</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
           <t>اتوماتیک</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>اتوماتیک</t>
-        </is>
-      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>بدون رنگ</t>
@@ -3132,7 +3656,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3142,48 +3666,64 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>4.7 لیتر</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>8 سیلندر تویین توربوشارژ</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr"/>
+          <t>5.2 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>9 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 8 پرو مکس</t>
+          <t>فوتون، تونلند G7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول کامل با کیت اسپرت و رینگ و لاستیک خاص</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>73,000 km</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3213,29 +3753,21 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J20)</t>
+          <t>2 لیتر</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>8.1 ثانیه</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>7.9 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>4 سیلندر توربوشارژ (4G20T15)</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>فونیکس، آریزو 8</t>
+          <t>نیسان، ترا</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3245,18 +3777,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>اکسلنت</t>
+          <t>اکسکلوسیو</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -3282,60 +3818,48 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>طوسی</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (4J20)</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>7.6 ثانیه</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>2 لیتر</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>داخل موکا</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>فیات، 500</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>1.2 لیتر</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>تهران / صدر</t>
+          <t>تهران / شهید مطهری</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -3361,7 +3885,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>خاکستری</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3371,21 +3895,29 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>1.2 لیتر</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>4 سیلندر (FIRE)</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr"/>
+          <t>12.9 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>4.8 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>فونیکس، FX</t>
+          <t>نیسان، ترا</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3395,21 +3927,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>پریمیوم FWD</t>
+          <t>اکسکلوسیو</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول کامل تیپ ۲ با رینگ جدید و پلاک شده آماده تحویل</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3432,63 +3972,55 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>خاکستری</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>8 ثانیه</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>داخل موکا</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>فونیکس، FX</t>
+          <t>فولکس، پاسات</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>پریمیوم FWD</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>تهران / شهید مطهری</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات صفرخشک قدیم ترخیص شرکتی</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3521,53 +4053,61 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
+          <t>1.8 لیتر</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>8 ثانیه</t>
+          <t>4 سیلندر توربوشارژ</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>7.9 ثانیه</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
+          <t>5.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 7 پرو مکس</t>
+          <t>هوندا، eNS1</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.6 لیتر توربو 2WD</t>
+          <t>150 کیلووات</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات پلاک شده آماده تحویل</t>
+        </is>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3575,7 +4115,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>برقی</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3590,7 +4130,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>نوک مدادی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3598,59 +4138,63 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>1 موتور الکتریکی</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>8.5 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>7.5 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 7 پرو هیبرید</t>
+          <t>پورشه، ماکان</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>e پلاس</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ۷کلید با دو رادار نقطه کور و بین خطوط ، کیلس و استارتر ، کیت اگزوز ، رینگ زوم مشکی ، سقف جیر ، چراغ PDLS PLUS ، باربند ، رکاب ، آینه دوشاخ ، اگزوز دو لول و ...</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>47,000 km</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3665,63 +4209,71 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>کربن بلک</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل قرمز</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4T15C) با 2 موتور الکتریکی</t>
+          <t>2 لیتر</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>7.5 ثانیه</t>
+          <t>4 سیلندر توربوشارژ</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>6.7 ثانیه</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>5.9 لیتر در صد کیلومتر</t>
+          <t>7.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 7 پرو</t>
+          <t>تویوتا، کمری هیبرید</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>پریمیوم</t>
+          <t>2.5 لیتر LE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ساخت ژاپن با سقف پاناروما و پرده عقب برقی و رینگ بزرگ و ...</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3729,7 +4281,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3744,59 +4296,55 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربو شارژ</t>
-        </is>
-      </c>
+          <t>داخل کرم</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>8.4 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>فونیکس، آریزو 6 جی تی</t>
+          <t>تویوتا، کمری هیبرید</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>اکسلنت</t>
+          <t>2.5 لیتر پریمیوم ادیشن</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr"/>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول کامل با هدآپ و فول رادار و گرمکن و سردکن و مموری صندلی و مانیتور بزرگ و...</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3804,7 +4352,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3827,70 +4375,62 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>7.6 ثانیه</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>فونیکس، آریزو 6 پرو</t>
+          <t>تویوتا، پرادو دو در</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>تهران / شهید مطهری</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول کامل با فول ایربگ با کول باکس و گرمکن صندلی و دو دوربین و...</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>78,000 km</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
           <t>اتوماتیک</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ری / شهرری </t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>اتوماتیک</t>
-        </is>
-      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>بدون رنگ</t>
@@ -3898,39 +4438,39 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل کرم</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4T15C)</t>
+          <t>2.7 لیتر</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>10.5 ثانیه</t>
+          <t>4 سیلندر</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>13.5 ثانیه</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6.9 لیتر در صد کیلومتر</t>
+          <t>12.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ام وی ام، X55 PRO</t>
+          <t>جک، جی 4</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3940,21 +4480,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>950000000</v>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">ری / شهرری </t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>تهران / آزادی</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ✅نمایندگی رسمی برتر فروش و خدمات پس از فروش کرمان موتور کد ۱۷۷۷ (حیدری)
+‎✅فروش نقدی تحویل فوری 
+✅خودرو کاردکس آماده سند و مدارک بنام شما
+✅فرصتی استثنایی جهت مصرف کنندگان و سرمایه گذاران عزیز
+✅تخفیف ویژه جهت خرید انبوه مناسب سرمایه گذاران محترم
+✅کلاستر و پشت آمپر جدید و مانیتور جدید
+‎برای کسب اطلاعات بیشتر با کارشناس خود تماس بگیرید و یا با هماهنگی قبلی به آدرس نمایندگی مراجعه فرمایید.
+خانم عزیزی</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -3987,68 +4540,84 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ بهینه شده</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr"/>
+          <t>11 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>6.2 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>هیوندای، سانتافه</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>4 سیلندر دو دیفرانسیل</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2900000000</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>تهران / میدان ولیعصر</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات صندوق برقی،پرده ،۵ گرمکن دو سرد، ساب ، اتوهلد، اتوپارک، شیب سنج،رادار بین خطوط، گرمکن فرمان، مموری صندلی،
+ کاپوت نیز رنگ
+قیمت مقطوع</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>240,000 km</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>اتوماتیک</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>تهران / اندرزگو</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>اتوماتیک</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>گلگیر رنگ</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>سفید صدفی</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4058,48 +4627,58 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>2.4 لیتر</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>4 سیلندر MPi (موتور GDI سفارشی)</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr"/>
+          <t>11.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>9.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>کی ام سی، T9</t>
+          <t>تارا، اتوماتیک V2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2 لیتر توربو</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>880000000</v>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>تهران / صدر</t>
+          <t>تهران / دروس</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>46,000 km</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4114,7 +4693,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>درب تعویض</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4129,48 +4708,62 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU5 پلاس</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr"/>
+          <t>13 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>7.3 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>هایما، S5</t>
+          <t>ب ام و، X3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>6 سرعته اتوماتیک</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5800000000</v>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>اصفهان / آزادگان</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول ا بوظبی 3 گرم کن کیت M فابریک هداپ درب صندوق برقی مشابه صفر سپرها هردو رنگ فابریک</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>79,000 km</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4195,137 +4788,133 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>9 ثانیه</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>8 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>داخل قرمز</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>پیش فروش کی ام سی، ایگل</t>
+          <t>فولکس، تی راک</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>1.5 لیتر توربو</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4600000000</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>تهران / شهید بهشتی</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات  خشک با پلاک - تحویل دیروز</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>صفر کیلومتر</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>اتوماتیک</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>بدون رنگ</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>سفید</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>داخل مشکی</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>1.5 لیتر</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>تهران / رسالت</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>اتوماتیک</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>بدون رنگ</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>سفید</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>4 سیلندر</t>
-        </is>
-      </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>12.5 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (EA211)</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>9.4 ثانیه</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
+          <t>6.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>فیدلیتی، پرستیژ</t>
+          <t>بنز، کلاس C</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>تیپ 1 پنج نفره</t>
+          <t>C200L</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>12300000000</v>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>تهران / شهید بهشتی</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات با پلاک - فول با برمستر</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4353,66 +4942,74 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>داخل موکا</t>
+          <t>داخل مشکی</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>9.9 ثانیه</t>
+          <t>4 سیلندر توربوشارژ هیبرید ملایم (M264)</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>9.2 ثانیه</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>8.2 لیتر در صد کیلومتر</t>
+          <t>6.5 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>فولکس، ID.4 Crozz</t>
+          <t>بنز، کلاس E</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PURE PLUS</t>
+          <t>E280</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3850000000</v>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>تهران / آجودانیه</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>اصفهان / آبشار</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ماشین به لحظ بدنه و کابین و فنی مطلقا بدون ایراد،
+۴ حلقه لاستیک دانلوپ ژاپن ورینگ نو،
+فول آوانگارد</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>197,000 km</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>برقی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4427,12 +5024,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل شتری</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -4443,34 +5040,43 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>اکستریم، VX</t>
+          <t>پژو، 206</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1394</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2.0 لیتر توربو</t>
+          <t>تیپ 2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>440000000</v>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>تهران / اندرزگو</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>اصفهان / امیریه</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات سپر ارسی + خطر ۲۰۷ + چراغ نقشه خوان + 4تا کمک کی دی اس نو + یک جفت فنر لنزو + ۴ تیکه شلگیر +امپلی فایر ۴ کانال پریمیر + ی جفت بلندگو کَدِنس + کیت تبدیل پخش فابریک به سیستم 
+بیمه تا برج ۱۰ بیمه ایران
+زیر و بند تازه تعویض شده کارکرد ماشین واقعیه
+مشتری واقعی باشی پای قلنامه ام تخفیف میدم</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>230,000 km</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4480,17 +5086,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>چند لکه رنگ</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>خاکستری</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -4500,49 +5106,71 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J20)</t>
+          <t>1.4 لیتر</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>9 ثانیه</t>
+          <t>4 سیلندر TU3</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr"/>
+          <t>14.1 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>6.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>سوزوکی، فرانکس هیبرید</t>
+          <t>دنا، پلاس EF7</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>اتوماتیک توربو آپشنال</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
+          <t>1 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1150000000</v>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>تهران / قیطریه</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4550,7 +5178,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>هیبریدی</t>
+          <t>بنزینی</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4565,7 +5193,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>نقره ای</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4575,53 +5203,71 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>4 سیلندر هیبرید ملایم (K15C)</t>
+          <t>1.7 لیتر</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>11 ثانیه</t>
+          <t>4 سیلندر توربوشارژ EF7</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>10.5 ثانیه</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>5.4 لیتر در صد کیلومتر</t>
+          <t>8.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 7 پرو</t>
+          <t>دنا، پلاس EF7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>پریمیوم</t>
+          <t>اتوماتیک توربو آپشنال</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1150000000</v>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>تهران / آجودانیه</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>تهران / توحید</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ****آداک خودرو مهر****
+''عضو رسمی اتحادیه ''
+با کد انحصاری ٥٩١٤٢٤**
+ فروش محصولات ایران خودرو،سایپا،پارس خودرو،بهمن،مدیران،کرمان و… 
+✅ضمانت سلامت برگ کارشناسی pds
+✅تحویل فوری و فقط به صورت نقدی
+✅سند آزاد،قابل انتقال،
+✅حق کارشناسی تمامی تجهیزات خودرو قبل از تحویل و تسویه
+✅٢٤ساعت مهلت کارشناسی خودرو
+✅بدون هزینه إضافی
+✅تمامی خودروها به صورت سفارشی
+جهت کسب اطلاعات بیشتر با کارشناسان ما در ارتباط باشید.
+™️مراجعه حضوری ٨صبح الی١٩</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -4644,7 +5290,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4654,25 +5300,29 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>4 سیلندر توربو شارژ</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr"/>
+          <t>1.7 لیتر</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ EF7</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>10.5 ثانیه</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>8.4 لیتر در صد کیلومتر</t>
+          <t>8.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>جک، جی 4</t>
+          <t>دنا، پلاس EF7</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4682,36 +5332,42 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>اتوماتیک توربو آپشنال</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1250000000</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>کرمان</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات معاوضه نمی‌گردد ، به مشتری واقعی تخفیف داده می‌شود.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>صفر کیلومتر</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>اتوماتیک</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>تهران / پونک</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>اتوماتیک</t>
-        </is>
-      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>بدون رنگ</t>
@@ -4719,7 +5375,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -4729,56 +5385,62 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>1.7 لیتر</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>11 ثانیه</t>
+          <t>4 سیلندر توربوشارژ EF7</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>10.5 ثانیه</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>6.2 لیتر در صد کیلومتر</t>
+          <t>8.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ام وی ام، X55 PRO</t>
+          <t>دنا، پلاس EF7</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>6 دنده توربو</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>920000000</v>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>کرج / جهان‌شهر</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات خودرو تا برج هشت گارانتی سانروف ،کروز صندلی برقی  کم کار واقعی بدون ایراد</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>16,500 km</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4788,7 +5450,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4808,42 +5470,52 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ بهینه شده</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr"/>
+          <t>1.7 لیتر</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ EF7</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
+          <t>10 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>7.8 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>کی ام سی، ایگل</t>
+          <t>تارا، اتوماتیک V2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1090000000</v>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>تهران / آجودانیه</t>
+          <t>اصفهان / زینبیه</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -4869,7 +5541,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -4879,34 +5551,34 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>12.5 ثانیه</t>
+          <t>4 سیلندر TU5 پلاس</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>13 ثانیه</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
+          <t>7.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>دیگنیتی، پرایم</t>
+          <t>هیوندای، جنسیس</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4916,19 +5588,26 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2100000000</v>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr"/>
+          <t>اصفهان / آینه خانه</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات سقف و ستون و لای دربها کاملا شاسی ها سالم
+دوطرف ماشین تصادف نداشته بعلت خط و خش رنگ شده</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>290,000 km</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4943,68 +5622,74 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>چند لکه رنگ</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>آبی</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>داخل مارون</t>
+          <t>داخل بژ</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (SFG15T)</t>
+          <t>3.8 لیتر</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13 ثانیه</t>
+          <t>6 سیلندر MPi</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>6.5 ثانیه</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>7.3 لیتر در صد کیلومتر</t>
+          <t>10 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>پژو، پارس</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1150000000</v>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>تهران / آجودانیه</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>تهران / صادقیه</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات خشک + دریچه گاز سیمی + ECU زیمنس + موتورTU5 + کلاس 23 + بدون کارکرد تحویل بهمن 1398 + بیمه کامل + آماده محضر+ روکش صندلی و کفی جلو پایی+ سرویس اولیه به تازگی انجام شده + مقطوع+ شخصی</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5017,7 +5702,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5032,50 +5717,64 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل خاکستری</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr"/>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU5</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
+          <t>13.2 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>7.5 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>کی ام سی، T9</t>
+          <t>رنو، ساندرو استپ وی</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1398</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2 لیتر توربو</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2150000000</v>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>تهران / جمال‌زاده</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول + خشک +بدون کارکرد تحویل بهمن 98 + روکش صندلی + کفی جلو پایی + چادر + بیمه و مدارک آماده محضر + مقطوع +</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5103,53 +5802,63 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل خاکستری</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr"/>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr"/>
+          <t>11.5 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>8 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>کی ام سی، X5</t>
+          <t>پژو، 206</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>تیپ 2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>535000000</v>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>تهران / پونک</t>
+          <t>رودهن</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>140,000 km</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5159,65 +5868,79 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>یک لکه رنگ</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل خاکستری</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4GC16D)</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>1.4 لیتر</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU3</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
+          <t>14.1 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>6.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>چانگان، CS 55 پلاس</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>اتوماتیک TU5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>970000000</v>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>تهران / قلهک</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات بدون نقطه تک برگ سند ۷ سال خوابیده یک سال بیمه باطری نو معاوضه با سراتو در حد</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -5240,7 +5963,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -5250,52 +5973,60 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (JL473ZQ7)</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>1.6 لیتر</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU5</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>12.6 ثانیه</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
+          <t>7.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ریسپکت، پرایم</t>
+          <t>پورشه، ماکان</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>تیپ 2</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / سعادت‌آباد</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>55,000 km</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5325,56 +6056,64 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4T15C)</t>
+          <t>2 لیتر</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10.5 ثانیه</t>
+          <t>4 سیلندر توربوشارژ</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>6.7 ثانیه</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>7.5 لیتر در صد کیلومتر</t>
+          <t>7.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>پژو، 207</t>
+          <t>لاماری، ایما</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>اتوماتیک TU5P</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2100000000</v>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>تهران / اندرزگو</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr"/>
+          <t>تهران / نیاوران</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فنی بشرط 
+بیمه تابرج۳
+سپرخط داره</t>
+        </is>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>20,749 km</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5389,12 +6128,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>صافکاری بدون رنگ</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>تیتانیوم</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -5404,29 +6143,25 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5P</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>12.6 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (4A95TD)</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>7.4 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>9.5 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>فونیکس، FX</t>
+          <t>پژو، 207</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5436,24 +6171,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>پریمیوم FWD</t>
+          <t>MC اتوماتیک</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>اصفهان / آذر</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr"/>
+          <t>تهران / زعفرانیه</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ماشین بسیار تمیز و مرتب چهار حلقه لاستیک دانلوپ صفر و همه کار ها انجام شده</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>30,000 km</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5478,61 +6221,84 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل قرمز</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J16)</t>
+          <t>1.6 لیتر</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>8 ثانیه</t>
+          <t>4 سیلندر TU5P</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>12.6 ثانیه</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
+          <t>7.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>کی ام سی، ایگل</t>
+          <t>تویوتا، راوفور</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>2.5 لیتر دو دیفرانسیل</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>5800000000</v>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>تهران / پیروزی</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>تهران / سیدخندان</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات سلام 
+ماشین به صورت زیر قیمت به فروش میرسد 
+به شرط کارشناسی و دیاگ 
+کار کرد واقعی واقعی 
+اگر یک کیلومتر جابه جا بود کل هزینه کارشناسی به عهده خودمون
+به دلیل داشتن چک 
+قیمت کاملا منصفانه 
+خودروسالم سالم 
+بدون کوچیک ترین خط و خش 
+فول عمان و دارای تمام اپشنهای نسخه عربی 
+اللخصوص مانیتور های عقب 
+صندوق برقی 
+مانیتور فول تاچ
+دو دیفرانسیل 
+دکمه کنترل شیب 
+سپرهای فابریک 
+بدون هیچ ایراد فنی
+به دلال نمیفروشم فقط مصرف کننده</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>81,000 km</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5552,7 +6318,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید صدفی</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
@@ -5562,68 +6328,74 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>2.5 لیتر</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
           <t>4 سیلندر</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>12.5 ثانیه</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>9.7 ثانیه</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>6.8 لیتر در صد کیلومتر</t>
+          <t>8.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>کی ام سی، J7</t>
+          <t>تویوتا، پرادو دو در</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4480000000</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>شمیرانات</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات بیظیرترین بدون لیسه بدونه تصادف موتور و گیربکس پلمپ کارخانه تمام مصرفی ها عوض شده با سانروف و شیب سنج</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>190,000 km</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
           <t>اتوماتیک</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>اتوماتیک</t>
-        </is>
-      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>بدون رنگ</t>
@@ -5636,53 +6408,68 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل کرم</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ TGDi</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr"/>
+          <t>2.7 لیتر</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr"/>
+          <t>13.5 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>12.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>فیدلیتی، پرایم</t>
+          <t>تویوتا، پرادو  چهار در</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>تیپ 2 هفت نفره</t>
+          <t>6 سیلندر</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>7800000000</v>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
+          <t>شمیرانات</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات بینظیرترین و بکر ترین اسپشیال بدون کوچکترین  صافکاری پی دی ار لیسه گیری و ترمیم بدنه وداخل اطاق 
+فول کامل با تنظیم ارتفاع و لیمیتد سرعت و خفه کن خودرو بدون  خط و خش و تعویض واقعی میباشد مشابه ماشین ۳۰ تا کار نو هست و همچنین فنی ماشین بسیار سالم و نو و موتور و گیربکس خودرو تا به حال نیاز به تعمیر نداشته و کاملا پلمپ کارخانه هست، خودرو استفاده شهری شده و افرود نرفته و زیر بندی ماشین فابریک و نو میباشد</t>
+        </is>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>150,000 km</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5702,60 +6489,62 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید صدفی</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل کرم</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4T15C)</t>
+          <t>4 لیتر</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>11.9 ثانیه</t>
+          <t>6 سیلندر</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>9.8 ثانیه</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>8.1 لیتر در صد کیلومتر</t>
+          <t>13.2 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>کی ام سی، X5</t>
+          <t>هیوندای، کونا</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1.5 لیتر توربو</t>
+          <t>2.0 لیتر</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>دقایقی پیش</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>4582000000</v>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
+          <t>تهران / باغ فردوس</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -5781,7 +6570,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -5791,48 +6580,63 @@
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4GC16D)</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
+          <t>2.0 لیتر</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>4 سیلندر MPi</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr"/>
+          <t>10.8 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>7.3 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>پژو، 207</t>
+          <t>پژو، 206</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>پانوراما اتوماتیک TU5P</t>
+          <t>تیپ 2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>490000000</v>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>تهران / باغ فیض</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>تهران / شهران جنوبی</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات  گلگیر جلو سمت شاگرد تعویض و درب جلو سمت شاگرد رنگ
+از نظر فنی سالم میباشد</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>110,000 km</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5842,70 +6646,94 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>کاپوت رنگ</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>نوک مدادی</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
+          <t>داخل طوسی</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>1.4 لیتر</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>4 سیلندر TU3</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>14.1 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>6.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>کی ام سی، T8</t>
+          <t>تویوتا، لوین هیبرید</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>1.8 لیتر اسپرت ادیشن</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3300000000</v>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>تهران / 17 شهریور</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>اسلام شهر</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ماشین فوق در حد صفر
+فروش فقط ب مصرف کننده 
+فروش به دلیل نیاز مالی</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>16,000 km</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5931,34 +6759,46 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>رنو، تندر 90</t>
+          <t>کیا، موهاوی</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>8 سیلندر</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>3300000000</v>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>اهواز / فرهنگ شهر</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr"/>
+          <t>تهران / یوسف‌آباد</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات بدون کوچکترین ایراد فنی
+کارکرد واقعی
+ با خط و خش جزئی
+دو برگ سند
+لاستیک دانلوب ٦۰ درصد
+بیمە ۷ ماە
+مانیتور و دوربین ۳٦۰ درجە و دوربین ثبت وقایع</t>
+        </is>
+      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>97,000 km</t>
+          <t>237,000 km</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5968,17 +6808,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>دور رنگ</t>
+          <t>بدون رنگ</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>نقره ای</t>
+          <t>برنز</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -5988,56 +6828,62 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>4 سیلندر</t>
+          <t>4.6 لیتر</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>10.2 ثانیه</t>
+          <t>8 سیلندر</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>7 ثانیه</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>6.9 لیتر در صد کیلومتر</t>
+          <t>12.8 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ام وی ام، X55 PRO</t>
+          <t>کیا، سورنتو</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>4 سیلندر GT لاین</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>5800000000</v>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>تهران / حسن‌آباد</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>قزوین</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات کاملا سالم و بی نقص فروش بخاطر نیاز مالی</t>
+        </is>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>44,000 km</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6062,65 +6908,79 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل قرمز</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ بهینه شده</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
+          <t>2.4 لیتر</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4 سیلندر GDI</t>
+        </is>
+      </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr"/>
+          <t>11.1 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>8.8 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>جک، S3</t>
+          <t>تویوتا، پرادو دو در</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>7200000000</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>نوشهر</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات  فنی سواری عالی داخل کابین نو و درجه ۱ اندازه برگه a4 درب صندق رنگ داره</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>174,000 km</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>بنزینی</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
           <t>اتوماتیک</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>تهران / 17 شهریور</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>صفر کیلومتر</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>بنزینی</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>اتوماتیک</t>
-        </is>
-      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>بدون رنگ</t>
@@ -6138,53 +6998,61 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
+          <t>2.7 لیتر</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
           <t>4 سیلندر</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>10.8 ثانیه</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>13.5 ثانیه</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>7.6 لیتر در صد کیلومتر</t>
+          <t>12.4 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>کی ام سی، T9</t>
+          <t>هیوندای، سانتافه</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2 لیتر توربو</t>
+          <t>4 سیلندر دو دیفرانسیل</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>تهران / 17 شهریور</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr"/>
+          <t>تهران / میرداماد</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول کرمان موتور با شیفتر سند ازاد مدارک اماده</t>
+        </is>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6217,45 +7085,62 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
+          <t>2.4 لیتر</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>4 سیلندر GDi: سفارشی</t>
+        </is>
+      </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr"/>
+          <t>11.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>8.5 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>کی ام سی، T9</t>
+          <t>کیا، سلتوس</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2 لیتر توربو</t>
+          <t>1.4 لیتر توربو</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>تهران / پیروزی</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>تهران / سعادت‌آباد</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات مالک هستم
+فقط مصرف کننده</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6278,7 +7163,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>نوک مدادی</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
@@ -6288,48 +7173,65 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (HFC4DB2)</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
+          <t>1.4 لیتر</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ GDi</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr"/>
+          <t>8.5 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>6.5 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>فونیکس، تیگو 7 پرو</t>
+          <t>ام وی ام، X22</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>پریمیوم</t>
+          <t>دنده ای لاکچری</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>تهران / شهید مطهری</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>کرج / گلشهر</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات نقد و اقساط 
+ </t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>145,000 km</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -6339,7 +7241,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6349,7 +7251,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>قرمز</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
@@ -6359,30 +7261,34 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>4 سیلندر توربو شارژ</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr"/>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4 سیلندر</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>12 ثانیه</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>8.4 لیتر در صد کیلومتر</t>
+          <t>5.9 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>چانگان، CS 55 پلاس</t>
+          <t>هاوال، H6 HEV</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -6392,16 +7298,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3150000000</v>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr"/>
+          <t>تهران / سهروردی</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات آماده تحویل نمایندگى بهمن موتور با خودروبر + بیمه + گارانتی + آماده محضر + مقطوع+</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6409,7 +7321,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -6424,7 +7336,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>خاکستری</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -6434,43 +7346,49 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (JL473ZQ7)</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr"/>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ (4B15D) با 1 موتور الکتریکی</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>1.5 لیتر</t>
+          <t>8.5 ثانیه</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
+          <t>5.2 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>اکستریم، VX</t>
+          <t>ب ام و، سری 3 سدان</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1403</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2.0 لیتر توربو</t>
+          <t>330i</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>7500000000</v>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>تهران / میرداماد</t>
@@ -6479,7 +7397,7 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>46,000 km</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6499,56 +7417,62 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل قهوه ای</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ (4J20)</t>
+          <t>2.0 لیتر</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>9 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (B48B20B)</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2.0 لیتر</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr"/>
+          <t>5.8 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>6.5 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>پژو، 207</t>
+          <t>نیسان، سیلفی e-POWER</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>پانوراما دنده ای</t>
+          <t>پلاس</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>3390000000</v>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
+          <t>ارومیه</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -6559,12 +7483,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>برقی با ژنراتور</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6584,56 +7508,62 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5</t>
+          <t>1.2 لیتر</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>11.6 ثانیه</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
+          <t>3 سیلندر خطی (HR12) با موتور الکتریکی</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
+          <t>4.5 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>پژو، 207</t>
+          <t>کوییک، دنده ای</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>پانوراما دنده ای</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>475000000</v>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
+          <t>تهران / تهرانپارس غربی</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات  ماشین فرقی با صفر ندارد.۱نقطه هم رو ماشین نیس . از همان اول در پارکینگ خوابیده است
+بیمه تا برج ۱۴۰۴/۱۰/۱۷ میباشد.
+روکش صندلی و دور فرمان هم دارد.سنسور دنده عقب دارد.اینه ها برقی .
+بازدید فقط برای خریدار واقعی
+لطفا دلال تماس نگیرد.</t>
+        </is>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>1,100 km</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6653,7 +7583,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -6663,56 +7593,70 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>11.6 ثانیه</t>
+          <t>4 سیلندر M15 یورو4</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>13 ثانیه</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
+          <t>7 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>پژو، 207</t>
+          <t>کیا، اسپورتیج</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>پانوراما دنده ای</t>
+          <t>4 سیلندر GT لاین</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>4180000000</v>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
+          <t>تهران / تهرانپارس غربی</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات ماشین سالم و تمام آپشن ها فعال بیمه ۱سال دارد فول آپشن, تمام خدمات تو نمایندگی انجام شده، ماشین دوم است، بیشتر تو پارکینگ بوده
+5گرم و ۲ سرد
+مجموعاً 6 کیسه هوا
+سیستم صوتی
+سیستم صوتی حرفه ای JBL با تکنولوژی Clari-Fi
+ترمز و پایداری
+سیستم پیشرفته کنترل کشش ATCC – ABS - EBD
+دیگر امکانات
+سیستم کمکی پارک – هشدار خروج از پارک به صورت دنده عقب – سیستم تشخیص نقطه کور – شارژ بی سیم گوشی هوشمند – چراغ های زنون – سانروف پانوراما – تهویه دوگانه برای سرنشینان جلو – گرمکن صندلی های جلو – سرنشین عقب‌ و سرد کن</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>68,000 km</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6722,7 +7666,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6732,7 +7676,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>تیتانیوم</t>
+          <t>نوک مدادی</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -6742,29 +7686,29 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5</t>
+          <t>2.4 لیتر</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>11.6 ثانیه</t>
+          <t>4 سیلندر GDI</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>9.8 ثانیه</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>6.6 لیتر در صد کیلومتر</t>
+          <t>8.5 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>پژو، 207</t>
+          <t>فونیکس، تیگو 8 پرو هیبرید</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6774,21 +7718,31 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>پانوراما اتوماتیک TU5P</t>
+          <t>e پلاس</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr"/>
+          <t>تهران / سعادت‌آباد</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات  خشک 
+مدارک کامل آماده انتقال 
+زیر قیمت بازار</t>
+        </is>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6796,7 +7750,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -6811,47 +7765,71 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>تیتانیوم</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
+          <t>داخل موکا</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربوشارژ (4T15C) با 2 موتور الکتریکی</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>7.6 ثانیه</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>6.5 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>پژو، 207</t>
+          <t>فونیکس، تیگو 7 پرو</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1403</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>پانوراما اتوماتیک TU5P</t>
+          <t>پریمیوم</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2300000000</v>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr"/>
+          <t>تهران / سعادت‌آباد</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات  سند ازاد 
+اماده انتقال 
+برای اطلاعات بیشتر تماس حاصل فرمایید</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6874,7 +7852,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -6882,39 +7860,60 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>1.5 لیتر</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>4 سیلندر توربو شارژ</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>8.4 لیتر در صد کیلومتر</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>دنا، پلاس EF7</t>
+          <t>هاوال، H6 HEV</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>اتوماتیک توربو آپشنال</t>
+          <t>1.5 لیتر توربو</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>توافقی</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr"/>
+          <t>تهران / سعادت‌آباد</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات مدارک کامل آماده انتقال زیر قیمت بازار
+تازه تحویل</t>
+        </is>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>صفر کیلومتر</t>
@@ -6922,7 +7921,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>بنزینی</t>
+          <t>هیبریدی</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -6937,66 +7936,72 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>تیتانیوم</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل مارون</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>4 سیلندر توربوشارژ EF7</t>
+          <t>1.5 لیتر</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10.5 ثانیه</t>
+          <t>4 سیلندر توربوشارژ (4B15D) با 1 موتور الکتریکی</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>1.7 لیتر</t>
+          <t>8.5 ثانیه</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>8.1 لیتر در صد کیلومتر</t>
+          <t>5.2 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>تارا، اتوماتیک V4</t>
+          <t>کیا، اپتیما</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>4 سیلندر ساده</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2750000000</v>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr"/>
+          <t>تهران / جردن</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول وارداتی فرمان D و ۳ حالته گرم کن و سرد کن ساب جلو ساب عقب سیستم صوتی اینفینیتی اتو هلد ترمز دستی برقی/ بدون خط و خش/ مخصوص مشکل پسندان ،</t>
+        </is>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>92,000 km</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -7016,66 +8021,74 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
+          <t>داخل کرم</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5 پلاس</t>
+          <t>2.4 لیتر</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>13 ثانیه</t>
+          <t>4 سیلندر MPI</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>10 ثانیه</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>7.3 لیتر در صد کیلومتر</t>
+          <t>8.1 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>تارا، دنده ای V1 پلاس</t>
+          <t>کیا، سورنتو</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>6 سرعته</t>
+          <t>6 سیلندر</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>3480000000</v>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr"/>
+          <t>قزوین</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فول کامل 
+ درجه یک 
+تمام آپشن سالم و مرتب</t>
+        </is>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>141,000 km</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -7085,7 +8098,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>دنده ای</t>
+          <t>اتوماتیک</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -7095,7 +8108,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>مشکی</t>
+          <t>سفید</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -7105,56 +8118,68 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>4 سیلندر TU5 پلاس</t>
+          <t>3.5 لیتر</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>12.5 ثانیه</t>
+          <t>6 سیلندر</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>1.6 لیتر</t>
+          <t>8.5 ثانیه</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>7.1 لیتر در صد کیلومتر</t>
+          <t>10.3 لیتر در صد کیلومتر</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>تارا، اتوماتیک V4</t>
+          <t>تویوتا، لندکروز وانت دو کابین</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>3F</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>3000000000</v>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr"/>
+          <t>آمل</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات موتور و دیفرانسیل و گیربکس لندکروز ۴.۵ 
+داخل کابین ۲۰۲۳
+وینچ جلو 
+مالند عقب
+ترمز و دیسک ای بی اس
+و خیلی لوازم اضافه دیگه
+ماشین در سلامت کامل همه تغییرات هم خودم انجام دادم به صورت حرفه ای</t>
+        </is>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>40,000 km</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -7164,76 +8189,74 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>اتوماتیک</t>
+          <t>دنده ای</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>بدون رنگ</t>
+          <t>دور رنگ</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>تیتانیوم</t>
+          <t>یشمی</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>داخل مشکی</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>4 سیلندر TU5 پلاس</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>13 ثانیه</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>1.6 لیتر</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>7.3 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+          <t>داخل کرم</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>دنا، پلاس EF7</t>
+          <t>تویوتا، پرادو دو در</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>اتوماتیک توربو آپشنال</t>
+          <t>6 سیلندر</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1 ساعت پیش</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
+          <t>2 ساعت پیش</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>5900000000</v>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>تهران / میرداماد</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr"/>
+          <t>گرگان</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> توضیحات فنی سالم تمامی مصرفی ها سرویس کامل شده
+کیت زیر بندی و ارتفاع
+باک ۱۶۰ لیتری
+دوربین 
+کشو عقب و سینی زیر برند دلفان
+گرم کن صندلی
+شیب سنج 
+آینه برقی
+مانیتور انرویدی و امپلی فایر</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>صفر کیلومتر</t>
+          <t>418,000 km</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -7253,7 +8276,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>سفید</t>
+          <t>مشکی</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
@@ -7261,26 +8284,10 @@
           <t>داخل مشکی</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>4 سیلندر توربوشارژ EF7</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>10.5 ثانیه</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>1.7 لیتر</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>8.1 لیتر در صد کیلومتر</t>
-        </is>
-      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
